--- a/查询本地题库/副本12.16更新形势与政策必答题库(不完整).xlsx
+++ b/查询本地题库/副本12.16更新形势与政策必答题库(不完整).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上的文件\形势与政策\mon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50958E8-3F5E-43D7-AC47-72969F32059E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F40D754-0219-4449-808D-1D14BF3DF36A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="815">
   <si>
     <t>2019年7月8日，财政部等六部门印发公告，至2025年年底，提供社区养老、托育、家政服务取得的收入，免征（）。</t>
   </si>
@@ -412,9 +412,6 @@
     <t>中共中央国务院印发《新时代爱国主义教育实施纲要》，要求充分挖掘重大纪念日、重大历史事件蕴含的爱国主义教育资源，组织开展系列庆祝或纪念活动和群众性主题教育。</t>
   </si>
   <si>
-    <t>我国国家制度和国家治理体系具有多方面的显著优势，这些显著优势体现在多个方面，以下不属于显著优势的是（&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;）。</t>
-  </si>
-  <si>
     <t>坚持农村改革</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -924,6 +921,1822 @@
   <si>
     <t>答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《新时代公民道德建设实施纲要》指出：新时代公民道德建设以（ ）为核心。</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年9月6日，全国自贸试验区首个中欧班列多式联运“一单制”跨境区块链平台项目在成都自贸区正式上线试运行。 这标志着成都自贸区在全国首次实现了将区块链技术与中欧班列多式联运“一单制”各业务环节相结合，将“一单制”各参与方链接起来，通过数据的联通和互相验证，营造（ ）、（ ）、（ ）、安全、可追溯的跨境贸易环境，筑造开放共享的跨境泛金融生态圈。</t>
+  </si>
+  <si>
+    <t>互信#透明#高效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，党的十九届四中全会《决定》提出完善党委领导、（ ）、（ ）、社会协同、( )、法治保障、( )的社会治理体系</t>
+  </si>
+  <si>
+    <t>政府负责#民主协商#公众参与#科技支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织、利用宗教活动反党#破坏民族团结#搞有组织的拉票贿选或者用公款拉票贿选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，党的十九届四中全会《决定》提出完善党委领导、（   ）、（   ）、社会协同、(   )、法治保障、(   )的社会治理体系</t>
+  </si>
+  <si>
+    <t>政府负责#民主协商#公众参与#科技支撑</t>
+  </si>
+  <si>
+    <t>习近平同志关于做好“三农”工作的重要论述有（）、（）、（）和（）。</t>
+  </si>
+  <si>
+    <t>“强富美”论#“两山”理论#“钱袋子”说#“饭碗”说</t>
+  </si>
+  <si>
+    <t>中国特色社会主义进入新时代，这意味着，中国特色社会主义道路、理论、制度、文化不断发展，拓展了发展中国家走向现代化的途径，给世界上那些既希望加快发展又希望保持自身独立性的国家和民族提供了全新选择，为解决人类问题贡献了中国智慧和（）。</t>
+  </si>
+  <si>
+    <t>中国方案</t>
+  </si>
+  <si>
+    <t>实施乡村振兴战略是党和国家的大战略，必须要（）先行，强化乡村振兴战略的（）。</t>
+  </si>
+  <si>
+    <t>规划#规划引领</t>
+  </si>
+  <si>
+    <t>歌曲《我和我的祖国》词作者是（）。</t>
+  </si>
+  <si>
+    <t>张藜</t>
+  </si>
+  <si>
+    <t>要全面贯彻党的宗教工作基本方针，坚持我国宗教的（）方向，促进宗教关系健康和谐，发挥宗教界人士和信教群众在促进经济社会发展中的积极作用。</t>
+  </si>
+  <si>
+    <t>中国化</t>
+  </si>
+  <si>
+    <t>目前，我国港口已与世界200多个国家、600多个主要港口建立航线联系，海运互联互通指数保持(     )。</t>
+  </si>
+  <si>
+    <t>全球第一</t>
+  </si>
+  <si>
+    <t>2019年11月19日，美国国会参议院审议通一法案，罔顾事实、混淆是非、违反公理，公然插手香港事务，干涉中国内政，严重违反国际法和国际关系基本准则。该法案是（     ）。</t>
+  </si>
+  <si>
+    <t>香港人权与民主法案</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，要建立以市场为主体、企业为导向、产学研深度融合的技术创新体系，支持大中小企业和各类主体融通创新，创新促进科技成果转化机制，积极发展新动能，强化标准引领，提升产业基础能力和产业链现代化水平。</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，积极应对（ ），加快建设居家社区机构相协调、医养康养相结合的养老服务体系。</t>
+  </si>
+  <si>
+    <t>人口老龄化</t>
+  </si>
+  <si>
+    <t>在中马两国的多领域合作中，（）在推进两国民心相通中发挥着越来越重要的作用。</t>
+  </si>
+  <si>
+    <t>高等教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《融合投融资规则 促进“一带一路”可持续发展 ——“一带一路”经济发展报告（2019）》指出：在一带一路沿线国家进行投资，面临的风险主要有六种：经济风险、环境和社会风险（     ）、（      ）、（      ）、（    ）。</t>
+  </si>
+  <si>
+    <t>法律和政治差异风险#冲突风险#债务的可持续性风险#文化差异风险</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，推动城乡义务教育一体化发展，健全学前教育、特殊教育和普及高中阶段教育保障机制，完善（ ）、（ ）、（ )统筹协调发展机制。</t>
+  </si>
+  <si>
+    <t>职业技术教育#高等教育#继续教育</t>
+  </si>
+  <si>
+    <t>我国社会（）变化是关系全局的历史性变化</t>
+  </si>
+  <si>
+    <t>主要矛盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十九大报告提到“保持香港、澳门长期繁荣稳定，实现祖国完全统一，是实现中华民族伟大复兴的（   ）。”</t>
+  </si>
+  <si>
+    <t>必然要求</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，全面贯彻政治建军各项要求，突出抓好（    ），发扬优良传统，传承红色基因，坚决抵制“军队非党化、非政治化”和“军队国家化”等错误政治观点。</t>
+  </si>
+  <si>
+    <t>军魂培育</t>
+  </si>
+  <si>
+    <t>中日双方应该践行“互为合作伙伴、互不构成威胁”的政治共识，本着“化竞争为协调”的精神，推动两国关系始终沿着正确轨道持续向前发展。</t>
+  </si>
+  <si>
+    <t>“领导力4.0：全球化新时代的成功之道”</t>
+  </si>
+  <si>
+    <t>新时代我们要全面准确理解和贯彻“一国两制”方针，严格依照（   ）和（   ）治港治澳，支持特别行政区政府和行政长官依法施政。</t>
+  </si>
+  <si>
+    <t>宪法#基本法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">党组织和党员必须牢固树立政治意识、大局意识、核心意识、看齐意识，自觉遵守党章，严格执行和维护党的纪律，自觉接受党的纪律约束，模范遵守国家法律法规。
+</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区是我国开放程度最高、经济活力最强的区域之一，在国家发展大局中具有重要战略地位。其战略意义在于（）、（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>是新时代进一步扩大开放的一项重大战略#是新时代全面深化改革的一项重大战略#是新时代推动粤港澳深度合作的一项重要战略#是新时代推动港澳与内地一体化发展的一项重大战略</t>
+  </si>
+  <si>
+    <t>“（  ）”上线于2019年1月1日，由中宣部主管以深入学习宣传习近平新时代中国特色社会主义思想为主要内容的“PC端+手机客户端”两大终端二合一模式的学习平台，上线后便成了党员干部群众学习的“新助手”。</t>
+  </si>
+  <si>
+    <t>学习强国</t>
+  </si>
+  <si>
+    <t>国家主席习近平在“一带一路”国际合作高峰论坛开幕式上发表主旨演讲时强调，古丝绸之路绵亘万里，延续千年，积淀了以和平合作、开放包容、互学互鉴、（）为核心的丝路精神。</t>
+  </si>
+  <si>
+    <t>互利共赢</t>
+  </si>
+  <si>
+    <t>十九大之后，我国经济呈现为成本驱动型的模式</t>
+  </si>
+  <si>
+    <t>低碳经济的本质是（）。</t>
+  </si>
+  <si>
+    <t>可持续发展经济</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“一带一路”建设要推动新兴产业合作，促进沿线国家加强在（）、（）、（）、（）等新兴产业领域的深入合作。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新材料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新能源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新一代信息技术</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界上人口最多的中等收入群体在（  ）。</t>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民是我们党的工作的最高（  ）和最终（  ）。</t>
+  </si>
+  <si>
+    <t>裁决者#评判者</t>
+  </si>
+  <si>
+    <t>2019年11月20日至23日，首届“世界5G大会”在亦庄举办。围绕“展成就、望前瞻”、（）、（）、（）、（）“高清视频、看世界”六大主题，展现5G发展最新成就和最新场景应用案例。</t>
+  </si>
+  <si>
+    <t>“智慧城市、智生活”#“智慧交通、享出行”#“智能制造、创未来”#“智慧医疗、更健康”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年2月20日，国务委员兼外长王毅同老挝外长沙伦赛共同会见记者时指出，“（）”是一条贸易和产业合作的（），将把“一带”和“一路”有机连接在一起，向北可以通往中亚和欧洲，向南连接（），辐射数十个国家和地区。</t>
+  </si>
+  <si>
+    <t>陆海新通道#纵向大通道#东南亚和南亚</t>
+  </si>
+  <si>
+    <t>2020年1月15日，中共中央政治局委员、国务院副总理、中美全面经济对话中方牵头人刘鹤与美国（）在白宫正式签署中美第一阶段经贸协议 。</t>
+  </si>
+  <si>
+    <t>总统特朗普</t>
+  </si>
+  <si>
+    <t>党的政治建设要把坚决维护以习近平同志为核心的党中央权威和()作为首要任务。</t>
+  </si>
+  <si>
+    <t>集中统一领导</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，树立（  ）的社会治理理念，是坚持把党的领导作为根本保证。</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>2020年9月29日，中共中央总书记、国家主席习近平同越共中央总书记、国家主席阮富仲通电话。习近平强调今年是中越建交（）周年，两党两国关系迈上新的历史起点。疫情之下中越双边贸易等合作呈现出强劲增长势头，彰显了中越关系的韧性和潜力。</t>
+  </si>
+  <si>
+    <t>习近平指出，深度贫困地区贫困程度深、（）、（），（）、（）、维稳问题交织，是决定脱贫攻坚战能否打赢的关键。</t>
+  </si>
+  <si>
+    <t>基础条件差#致贫原因复杂#民族#宗教</t>
+  </si>
+  <si>
+    <t>自回归以来，香港特区一直严格按照香港基本法的规定实行“港人治港”、高度自治，充分体现“一国两制”得到全面和成功落实，（  ）及（   ）是香港特区的核心价值。</t>
+  </si>
+  <si>
+    <t>法治#司法独立</t>
+  </si>
+  <si>
+    <t>习近平在2020年6月8日同缅甸总统温敏就中缅建交70周年互致贺电中强调，他高度重视中缅关系发展，愿同你一道努力，以构建中缅命运共同体为遵循，密切高层往来，巩固政治互信，深化各领域务实合作，加强多边协调配合，使两国人民永做（）、（）、好伙伴和（）。</t>
+  </si>
+  <si>
+    <t>好邻居#好朋友#好胞波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加快建立绿色生产和消费的法律制度和政策导向，建立健全绿色低碳循环发展的经济体系。</t>
+  </si>
+  <si>
+    <t>“一带一路”建设的重要支撑是（）</t>
+  </si>
+  <si>
+    <t>资金融通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国特色社会主义最本质的特征是（  ）领导</t>
+  </si>
+  <si>
+    <t>中国共产党</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，各级党和国家机关以及领导干部要带头尊法学法守法用法，提高运用法治思维和法治方式深化改革、（）、（）、（）、（）的能力。</t>
+  </si>
+  <si>
+    <t>推动发展#化解矛盾#维护稳定#应对风险</t>
+  </si>
+  <si>
+    <t>对于违反党章和其他党内法规的规定，采取弄虚作假或者其他手段把不符合党员条件的人发展为党员，或者为非党员出具党员身份证明的，对直接责任者和领导责任者，给予警告或者（）处分。</t>
+  </si>
+  <si>
+    <t>严重警告</t>
+  </si>
+  <si>
+    <t>过去，中国吸引外资主要靠优惠政策，现在要更多靠（）。</t>
+  </si>
+  <si>
+    <t>改善投资环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>党员在干部、职工的录用、考核、职务晋升、职称评定和征兵、安置复转军人等工作中，隐瞒、歪曲事实真相，或者利用职权或者职务上的影响违反有关规定为本人或者其他人谋取利益的，给予警告或者（）处分。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">港澳台居民前往内地（大陆）居住()以上，符合相关规定的，根据本人意愿，可以依照相关规定申请领取内地（大陆）居住证。
+</t>
+  </si>
+  <si>
+    <t>半年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年7月8日，国家统计局公布的新中国成立70年来的数据显示，新中国成立以来，特别是改革开放以来，我国经济持续快速增长，成为世界（）经济体，同时，经济结构发生深刻变化，从落后的农业国演进为世界（）制造业大国。 </t>
+  </si>
+  <si>
+    <t>第二、第一</t>
+  </si>
+  <si>
+    <t>（）是两岸关系的政治基础。</t>
+  </si>
+  <si>
+    <t>一个中国原则</t>
+  </si>
+  <si>
+    <t>改革开放以来，中国工业化进程加快，结构日趋合理化，（  ）逐渐占据主导地位。</t>
+  </si>
+  <si>
+    <t>第三产业</t>
+  </si>
+  <si>
+    <t>2019年1月，由中共中央办公厅印发的《中国共产党纪律检查机关监督执纪工作规则》（简称《规则》）规定，查封、扣押（暂扣、封存）、冻结、移交涉案财物，可以不严格履行审批手续。</t>
+  </si>
+  <si>
+    <t>发达经济体中，失业率最低的国家是（    ）。</t>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共中央办公厅、国务院办公厅印发的《关于隆重庆祝中华人民共和国成立70周年广泛组织开展“我和我的祖国”群众性主题宣传教育活动的通知》强调，活动要高举中国特色社会主义伟大旗帜,以习近平新时代中国特色社会主义思想为指导，增强“四个意识”,坚定“四个自信”,做到（）。</t>
+  </si>
+  <si>
+    <t>“两个维护”</t>
+  </si>
+  <si>
+    <t>港澳台居民居住证的有效期限为（）年。</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区的发展目标是：到（）年，大湾区形成以创新为主要支撑的经济体系和发展模式，经济实力、科技实力大幅跃升，国际竞争力、影响力进一步增强。</t>
+  </si>
+  <si>
+    <t>2019年5月，《求是》杂志发表中共中央总书记、国家主席、中央军委主席习近平的重要文章《深入理解新发展理念》。文章指出，要着力实施（）战略。</t>
+  </si>
+  <si>
+    <t>创新驱动发展</t>
+  </si>
+  <si>
+    <t>思想建设是党的（）。</t>
+  </si>
+  <si>
+    <t>基础性建设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年1月，中共中央办公厅印发的《中国共产党纪律检查机关监督执纪工作规则》（简称《规则》）指出，监督执纪工作应当遵循以下原则：坚持实事求是，以事实为依据，以（  ）为准绳，强化监督、严格执纪，把握政策、宽严相济，对主动投案、主动交代问题的宽大处理，对拒不交代、欺瞒组织的从严处理。</t>
+  </si>
+  <si>
+    <t>党章党规党纪和国家法律法规</t>
+  </si>
+  <si>
+    <t>2019年3月8日记者会上，王毅指出，作为大国关系的典范，中俄两国建交70年来，（），（），（），既为两国人民带来巨大福祉，也为地区和世界的和平稳定作出了重要贡献。</t>
+  </si>
+  <si>
+    <t>政治上彼此信任#经济上互利合作#国际事务中相互支持</t>
+  </si>
+  <si>
+    <t>（）是最大的民生。</t>
+  </si>
+  <si>
+    <t>就业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《粤港澳大湾区发展规划刚要》指出：2017年大湾区经济总量约（）万亿元。</t>
+  </si>
+  <si>
+    <t>未满十六周岁的港澳台居民，可以由监护人代为申请领取内地（大陆）居住证。</t>
+  </si>
+  <si>
+    <t>习总书记在“不忘初心、牢记使命”主题教育工作会议中指出，开展这次主题教育划阶段、分环节，不是降低标准，而是提出更高要求。</t>
+  </si>
+  <si>
+    <t>中国共产党同缅甸全国民主联盟于2020年7月9日举行“中缅政党+：（）省与曼德勒省视频交流对接会”，缅甸国务资政昂山素季发表书面致辞，中共中央对外联络部部长宋涛，中共云南省委书记陈豪，缅民盟第二副主席、曼德勒省首席部长佐敏貌，缅商务部长丹敏等与会并致辞。</t>
+  </si>
+  <si>
+    <t>云南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施乡村振兴战略是一项长期的历史性任务。</t>
+  </si>
+  <si>
+    <t>实现中华民族伟大复兴，是中国共产党的（）。</t>
+  </si>
+  <si>
+    <t>历史使命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国高度重视（）保护，将其作为完善产权保护制度最重要的内容之一。</t>
+  </si>
+  <si>
+    <t>知识产权</t>
+  </si>
+  <si>
+    <t>加强从政道德建设是净化党内政治生态的关键环节。</t>
+  </si>
+  <si>
+    <t>美国对中国加征关税，不仅没有推动美国经济增长，反而带来了严重伤害，表现在（）、（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>提高美国企业生产成本#抬升美国国内物价#阻碍美对华出口#影响美国民生</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，健全党和国家监督制度，要完善（）监督体系，落实各级党组织监督责任，保障党员监督权利。</t>
+  </si>
+  <si>
+    <t>党内</t>
+  </si>
+  <si>
+    <t>在“一带一路”建设中，要开展城市交流合作，欢迎沿线国家重要城市之间互结友好城市，以（）为重点，突出务实合作。</t>
+  </si>
+  <si>
+    <t>人文交流</t>
+  </si>
+  <si>
+    <t>受新型冠状病毒感染肺炎疫情影响，中国大部分企业春节后复工时间推迟，进出口意外承压。一场非常时期的“外贸保卫战”因此拉开大幕。截至2月7日，中国商务部四天内已四次发文，在（     ）、（       ）两方面发力。</t>
+  </si>
+  <si>
+    <t>减少出口损失#积极扩大进口</t>
+  </si>
+  <si>
+    <t>乡村振兴的立足点应该是乡村和（）发展。</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>党员受到警告处分（），不得在党内提升职务和向党外组织推荐担任高于其原任职务的党外职务。</t>
+  </si>
+  <si>
+    <t>一年内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年始中国（天津）自由贸易试验区成立4周年，中国（天津）自由贸易试验区（以下简称天津自贸试验区）是经国务院批准设立的中国北方（）个自贸试验区 </t>
+  </si>
+  <si>
+    <t>第一</t>
+  </si>
+  <si>
+    <t>习总书记在“不忘初心、牢记使命”主题教育工作会议中指出，中国共产党从诞生之日起，就把(  )鲜明地写在自己的旗帜上。</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为支持实体经济发展，降低社会融资实际成本，央行决定于2019年9月16日起全面下调金融机构存款准备金率（）个百分点。 </t>
+  </si>
+  <si>
+    <t>我们党在带领人民进行伟大社会革命的同时，不断进行伟大（），这是我们党不断从胜利走向新的胜利的关键所在。</t>
+  </si>
+  <si>
+    <t>自我革命</t>
+  </si>
+  <si>
+    <t>深化党和（）是提高党的执政能力和领导水平的必然要求。</t>
+  </si>
+  <si>
+    <t>国家机构改革</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，维护香港、澳门长期繁荣稳定，绝不容忍任何挑战“一国两制”底线的行为，绝不容忍任何分裂国家的行为。</t>
+  </si>
+  <si>
+    <t>如何提升中国丝绸之路的软实力，（）、（）、（）、（）。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加大对文化产业投入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打造征服人心的中国精品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注重人才以及话语权建设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做好文化宣传工作</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，我国国家（   ）和（    ）是中国特色社会主义制度及其执行能力的集中体现。</t>
+  </si>
+  <si>
+    <t>治理体系#治理能力</t>
+  </si>
+  <si>
+    <t>习近平指出，要贯彻好党的（ ），坚持社会治理为了人民，善于把党的优良传统和新技术新手段结合起来，创新组织群众、发动群众的机制，创新为民谋利、为民办事、为民解忧的机制，让群众的聪明才智成为社会治理创新的不竭源泉。</t>
+  </si>
+  <si>
+    <t>群众路线</t>
+  </si>
+  <si>
+    <t>确立维护无产阶级政党领导核心，始终是马克思主义（  ）一个基本观点。</t>
+  </si>
+  <si>
+    <t>建党学说</t>
+  </si>
+  <si>
+    <t>中共中央办公厅、国务院办公厅印发的《关于隆重庆祝中华人民共和国成立70周年广泛组织开展“我和我的祖国”群众性主题宣传教育活动的通知》强调，要充分宣传展示中华人民共和国成立70年来特别是改革开放以来的（）、（）和（）</t>
+  </si>
+  <si>
+    <t>光辉历程#伟大成就#宝贵经验</t>
+  </si>
+  <si>
+    <t>十九大报告指出，加强和创新社会治理，归根到底是为了（），让人民群众共同享有治理成果。</t>
+  </si>
+  <si>
+    <t>不断满足人民日益增长的美好生活需要</t>
+  </si>
+  <si>
+    <t>()是部队建设的中坚力量，是深入贯彻全面从严治党要求的关键，必须带头强化“四个意识”，坚定“四个自信”，以实际行动做全面从严治党的“排头兵”</t>
+  </si>
+  <si>
+    <t>军队党员领导干部</t>
+  </si>
+  <si>
+    <t>2020年1月，中共中央印发的《中国共产党党和国家机关基层组织工作条例》指出， 尊重党员主体地位，保障党员民主权利，落实机关党员（）、（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>知情权#参与权#选举权#监督权</t>
+  </si>
+  <si>
+    <t>中国特色社会主义制度是党和人民在长期实践探索中形成的科学制度体系，我国国家治理一切工作和活动都依照中国特色社会主义制度展开。</t>
+  </si>
+  <si>
+    <t>在基层社会治理中，应使基层（   ）成为防范化解社会矛盾的“主心骨”。</t>
+  </si>
+  <si>
+    <t>党组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年12月1日，中共中央、国务院印发了（），并发出通知，要求各地区各部门结合实际认真贯彻落实。 </t>
+  </si>
+  <si>
+    <t>《长江三角洲区域一体化发展规划纲要》</t>
+  </si>
+  <si>
+    <t>2019年，我国60岁以上人口已达（）亿。要大力发展养老特别是社区养老服务业，对在社区提供日间照料、康复护理、助餐助行等服务的机构给予税费减免、资金支持、水电气热价格优惠等扶持.</t>
+  </si>
+  <si>
+    <t>党要管党，首先是管好(  )；从严治党，关键是从严治吏。要把党建设好，必须抓住“关键少数”。</t>
+  </si>
+  <si>
+    <t>干部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王毅说，当今世界正处于百年未有之大变局。中国外交正站在新的历史起点，我们将在以习近平同志为核心的党中央领导之下，全面贯彻落实习近平外交思想，不忘初心、牢记使命，（），（），（），（）。</t>
+  </si>
+  <si>
+    <t>坚持和平发展道路#践行合作共赢理念#维护现有国际体系#，承担更多的国际责任</t>
+  </si>
+  <si>
+    <t>经党中央批准、国务院批复自2018年起，将每年秋分日设立为“（  ）”，将极大调动起亿万农民的积极性、主动性、创造性，提升亿万农民的荣誉感、幸福感、获得感。</t>
+  </si>
+  <si>
+    <t>中国农民丰收节</t>
+  </si>
+  <si>
+    <t>2019年是中俄建交()周年。</t>
+  </si>
+  <si>
+    <t>党的纪律处分工作应当坚持以下原则：坚持党要管党、全面从严治党；党纪面前一律平等；（）；（）；（）。</t>
+  </si>
+  <si>
+    <t>实事求是#民主集中制#惩前毖后、治病救人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国共产党第十九次全国代表大会，把习近平新时代中国特色社会主义思想确立为党必须长期坚持的指导思想并庄严地写入党章，实现了党的指导思想的与时俱进。</t>
+  </si>
+  <si>
+    <t>习近平指出：要把（）摆在重要位置，适时组织对脱贫人口开展“回头看”。</t>
+  </si>
+  <si>
+    <t>防止返贫</t>
+  </si>
+  <si>
+    <t>习近平2020年1月16日应约同越共中央总书记、国家主席阮富仲通电话时指出：双方要把握机遇、乘势而上，全面提升交流合作水平，推进共建“一带一路”，把中越交流合作不断做大，让两国人民有更多（    ）、（    ）。</t>
+  </si>
+  <si>
+    <t>获得感#幸福感</t>
+  </si>
+  <si>
+    <t>我国已成为“一带一路”沿线不少国家的最大（）、最大出口市场和主要投资来源地。</t>
+  </si>
+  <si>
+    <t>区域内贸易伙伴</t>
+  </si>
+  <si>
+    <t>（）是实现乡村振兴的基石，（）是提高乡村发展质量的保证，（）是乡村建设的灵魂，（）是乡村善治的核心，生活富裕是乡村振兴的目标。</t>
+  </si>
+  <si>
+    <t>产业兴旺#生态宜居#乡风文明#治理有效</t>
+  </si>
+  <si>
+    <t>习近平总书记在十九届中央纪委四次全会上发表重要讲话强调，要把党委（党组）全面监督、（）专责监督、党的工作部门职能监督、（）日常监督、（）民主监督等结合起来、融为一体。</t>
+  </si>
+  <si>
+    <t>纪委监委#党的基层组织#党员</t>
+  </si>
+  <si>
+    <t>乡村振兴战略的提出根植于中国社会主要矛盾发生变化这一时代背景，契合新时期城乡要素流动的新趋势，描绘出未来乡村发展的新蓝图。</t>
+  </si>
+  <si>
+    <t>中国与中亚国家在近年来签订了一系列涉及大型（）出口贸易的大单。</t>
+  </si>
+  <si>
+    <t>机械设备</t>
+  </si>
+  <si>
+    <t>与其他国家类似发展战略相比，“一带一路”的全球支持率遥遥领先，高出“全面与进步跨太平洋伙伴关系协定（CPTPP）”(    )个百分点，高出美日印澳四国提出的“印太战略”8.06个百分点，是印度“季风计划”的3倍还多。</t>
+  </si>
+  <si>
+    <t>中共中央办公厅、国务院办公厅印发的《关于隆重庆祝中华人民共和国成立70周年广泛组织开展“我和我的祖国”群众性主题宣传教育活动的通知》强调，要高举中国特色社会主义伟大旗帜,以习近平新时代中国特色社会主义思想为指导,增强（）,坚定（）,做到（）</t>
+  </si>
+  <si>
+    <t>“四个意识”#“四个自信”#“两个维护”</t>
+  </si>
+  <si>
+    <t>美方将所谓“香港人权与民主法案”签署成法，此举严重干预香港事务，严重干涉中国内政，严重违反国际法和国际关系基本准则，是赤裸裸的霸权行径，中国政府和人民对此强烈愤慨，坚决反对。</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，要推动建设（）、（）、（）的新型国际关系。</t>
+  </si>
+  <si>
+    <t>相互尊重#公平正义#合作共赢</t>
+  </si>
+  <si>
+    <t>2019年，应打好精准脱贫攻坚战。重点解决实现（）面临的突出问题，加大“三区三州”等深度贫困地区脱贫攻坚力度，加强基础设施建设，落实对特殊贫困人口的保障措施。</t>
+  </si>
+  <si>
+    <t>两不愁三保障</t>
+  </si>
+  <si>
+    <t>2019年11月27日，美方不顾中方的强烈反对，一意孤行，将“香港人权与民主法案”签署成法。这是对（   ）赤裸裸的干涉，是对国际法和国际关系基本准则的严重践踏。</t>
+  </si>
+  <si>
+    <t>中国内政</t>
+  </si>
+  <si>
+    <t>中国是柬埔寨最大的（）。</t>
+  </si>
+  <si>
+    <t>投资来源国 </t>
+  </si>
+  <si>
+    <t>李克强在第八次中日韩领导人会议上建议中日韩三国重点推动以下几方面的合作：（）；加强顶层设计，明确合作方向；（）；（）；（）；关注社会民生，推动可持续发展。</t>
+  </si>
+  <si>
+    <t>夯实互信根基，维护合作大局#加速自贸谈判，推动区域经济一体化#促进创新合作，打造新增长点#密切人文交流，筑牢友好纽带</t>
+  </si>
+  <si>
+    <t>2019年1月19日，签署全面与进步跨太平洋伙伴关系协定(CPTPP)的11个国家在东京举行了该协定生效以来的首次部长级会议。会后各方发布联合声明，表达了支持保护主义、反对自由贸易的立场。</t>
+  </si>
+  <si>
+    <t>从国际地位看，当代中国正处在从大国走向强国的关键时期，已不再是国际秩序的被动接受者，而是积极的（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>参与者#建设者#引领者</t>
+  </si>
+  <si>
+    <t>习近平同志关于做好“三农”工作的重要系列论述中，“中国人的饭碗要牢牢端在自己手中，我们的饭碗应该主要装中国粮”是他的（）。</t>
+  </si>
+  <si>
+    <t>“饭碗”之说</t>
+  </si>
+  <si>
+    <t>中国共产党一经成立，就把实现社会主义作为党的最高理想和最终目标。</t>
+  </si>
+  <si>
+    <t>十九大报告指出，我国经济发展已经从高速增长阶段转变为（）发展阶段</t>
+  </si>
+  <si>
+    <t>高质量</t>
+  </si>
+  <si>
+    <t>2019年2月15日国新办发布会指出2018年我国水产养殖总产量超过5000万吨，占水产品总产量的比重达78%以上，是世界上（）养殖水产品总量超过捕捞总量的主要渔业国家。</t>
+  </si>
+  <si>
+    <t>唯一</t>
+  </si>
+  <si>
+    <t>推动全面从严治党向纵深发展，必须深入挖掘()违纪违法形式，从新情况入手，不留死角。</t>
+  </si>
+  <si>
+    <t>新型</t>
+  </si>
+  <si>
+    <t>党的领导必须是（  ）的、（  ）的、（  ）的。</t>
+  </si>
+  <si>
+    <t>全面#系统#整体</t>
+  </si>
+  <si>
+    <t>主体功能区战略的主要内涵之一就是把全国的主体空间分为四类地区，分别是（）、（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>优化开发区域#重点开发区域#限制开发区域#禁止开发区域</t>
+  </si>
+  <si>
+    <t>十九大报告指出，党的（）是党的根本性建设，决定党的建设方向和效果。</t>
+  </si>
+  <si>
+    <t>习近平新时代中国特色社会主义思想，充满着对马克思主义的坚定信仰，充满着对社会主义和共产主义的坚定信念，展现了当代中国共产党人的（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>政治品格#价值追求#精神风范</t>
+  </si>
+  <si>
+    <t>（），是我们党一切行动的根本出发点和落脚点，是我们党区别于其他一切政党的根本标志。</t>
+  </si>
+  <si>
+    <t>全心全意为人民服务</t>
+  </si>
+  <si>
+    <t>根据国际货币基金组织经济学家最新研究，美国和中国彼此加征关税将导致2020年全球国内生产总值（GDP）增长率下滑（）个百分点</t>
+  </si>
+  <si>
+    <t>实施乡村振兴战略，是解决人民（）需要和（）之间矛盾的必然要求，是实现（）奋斗目标的必然要求，是实现全体人民（）的必然要求。</t>
+  </si>
+  <si>
+    <t>日益增长的美好生活#不平衡不充分的发展#“两个一百年”#共同富裕</t>
+  </si>
+  <si>
+    <t>2020年1月15日，中美双方在美国（        ）签署《中华人民共和国政府和美利坚合众国政府经济贸易协议》</t>
+  </si>
+  <si>
+    <t>华盛顿</t>
+  </si>
+  <si>
+    <t>办好中国的事情，关键在（  ）。要把新时代坚持和发展中国特色社会主义这场伟大社会革命进行好，我们党必须勇于进行自我革命，把党建设得更加坚强有力</t>
+  </si>
+  <si>
+    <t>党</t>
+  </si>
+  <si>
+    <t>（  ）和（  ）选择中国共产党领导中华民族伟大复兴的事业是正确的。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>历史</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人民</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平总书记指出：“人民对美好生活的向往，就是我们的奋斗目标。”</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，我国坚持独立自主的和平外交政策，推动构建（ ）。</t>
+  </si>
+  <si>
+    <t>人类命运共同体</t>
+  </si>
+  <si>
+    <t>政治建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年1月14日海关统计显示，2019年（）进出口13.48万亿元，增长11.4%，占我国外贸总值的42.7%，首次成为我国外贸第一大主体。</t>
+  </si>
+  <si>
+    <t>民营企业</t>
+  </si>
+  <si>
+    <t>当地时间2020年1月21日，中共中央政治局常委、国务院副总理(     )出席达沃斯世界经济论坛2020年年会，发表题为“共建开放型世界经济 推动全球可持续发展”的致辞。</t>
+  </si>
+  <si>
+    <t>韩正</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，坚持和完善（    ）制度体系，推进祖国和平统一。</t>
+  </si>
+  <si>
+    <t>一国两制</t>
+  </si>
+  <si>
+    <t>中共中央办公厅、国务院办公厅印发的《关于隆重庆祝中华人民共和国成立70周年广泛组织开展“我和我的祖国”群众性主题宣传教育活动的通知》强调，要加强组织领导,周密安排、精心实施,充分结合实际,因地制宜,务求实效,把（）落实到活动的各个环节,确保各项活动安全有序、欢乐祥和。</t>
+  </si>
+  <si>
+    <t>安全责任</t>
+  </si>
+  <si>
+    <t>全面贯彻党的十九大精神，以（）为指导，加强党对“三农”工作的领导。</t>
+  </si>
+  <si>
+    <t>习近平新时代中国特色社会主义思想</t>
+  </si>
+  <si>
+    <t>2020年4月14日，李克强在东盟与中日韩抗击新冠肺炎疫情领导人特别会议上发表讲话，并就10+3抗击疫情合作提出（  ）点倡议</t>
+  </si>
+  <si>
+    <t>截止到2019年9月30日，中美已经举行（）轮经贸高级别磋商。</t>
+  </si>
+  <si>
+    <t>十二</t>
+  </si>
+  <si>
+    <t>《新时代爱国主义教育实施纲要》指出，以爱国主义为核心的（）精神和以改革创新为核心的时代精神，是凝心聚力的兴国之魂、强国之魂。</t>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平同志关于做好“三农”工作的重要系列论述中，“检验农村工作实效的一个重要尺度，就是看农民的“钱袋子”鼓起来没有”是他的（）。</t>
+  </si>
+  <si>
+    <t>“钱袋子”说</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，完善人民政协专门协商机构制度，（），（），（），（）和增进团结相互贯通、建言资政和凝聚共识双向发力的程序机制。</t>
+  </si>
+  <si>
+    <t>丰富协商形式#健全协商规则#优化界别设置#健全发扬民主</t>
+  </si>
+  <si>
+    <t>习近平指出，干部要想行得端、走得正，就必须涵养道德操守，明礼诚信，怀德自重，保持严肃的生活作风、培养健康的生活情趣，特别是要增强自制力，做到（  ）。</t>
+  </si>
+  <si>
+    <t>慎独慎微</t>
+  </si>
+  <si>
+    <t>2020年9月，王晨在天津调研时强调深入贯彻新发展理念，他强调，要以习近平新时代中国特色社会主义思想为指导，深入贯彻（）、（）、（）、（）、共享发展理念。</t>
+  </si>
+  <si>
+    <t>创新#协调#绿色#开放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲《我和我的祖国》曲作者是（）。</t>
+  </si>
+  <si>
+    <t>秦咏诚</t>
+  </si>
+  <si>
+    <t>将()建设纳入新时代党的建设总体布局，推进全面从严治党向纵深发展，已经成为新时代党建工作的主旋律。</t>
+  </si>
+  <si>
+    <t>纪律</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，坚持以（ ）为中心的工作导向，完善文化产品创作生产传播的引导激励机制，推出更多群众喜爱的文化精品。</t>
+  </si>
+  <si>
+    <t>人民</t>
+  </si>
+  <si>
+    <t>确立和维护无产阶级政党的（），始终是马克思主义建党学说的一个基本观点。</t>
+  </si>
+  <si>
+    <t>领导核心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加快产业升级、补齐基础设施短板、实现绿色发展，是不少非洲国家高度关切的发展重点，也是中非合作的重要着力点。伴随“一带一路”倡议在非洲落地生根，中非经贸合作提质增效，迈向（     ），为非洲经济带来持久发展动力。</t>
+  </si>
+  <si>
+    <t>重庆#成都</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年12月4日，中共中央办公厅印发了《2019—2023年全国党政领导班子建设规划纲要》，指出，要坚持全面从严治党，贯彻落实新时代党的（），以党的政治建设为统领，聚焦“两个维护”强化政治忠诚，着眼坚定信仰深化理论武装，适应时代发展需要配强领导班子，不断提升能力素质，持续改进作风，激励担当作为，努力锻造忠实践行习近平新时代中国特色社会主义思想的坚强领导集体。</t>
+  </si>
+  <si>
+    <t>组织路线</t>
+  </si>
+  <si>
+    <t>2019年6月4日，商务部副部长钱克明，下一步，将以中非共建“一带一路”为统领，以落实2018年中非合作论坛北京峰会提出的“八大行动”为主线，以支持非洲培育(  )为重点，与非方携手努力，共同推动新时代中非经贸合作向高质量发展。</t>
+  </si>
+  <si>
+    <t>内生增长能力</t>
+  </si>
+  <si>
+    <t>2019年10月13日，《中华人民共和国和尼泊尔联合声明》指出，（）、（）、（）、（）是两国关系主要特点</t>
+  </si>
+  <si>
+    <t>平等相待#和睦相处#世代友好#全面合作</t>
+  </si>
+  <si>
+    <t>随着共建“一带一路”的推进和国际交往的增多，越来越多的外国学子到中国留学。中国国际教育市场得以迅速发展的原因有：中国经济实力的增强提升了教育水平与科研水平，（         ），（       ），（       ），（       ）。</t>
+  </si>
+  <si>
+    <t>国家重视推进
+高等教育国际化的进程#教育部部署实施
+多项共建“一带一路”教育行动#国内各大高校实施各项措施吸引留学生，
+建设国际化高校#中国与海丝沿线国家经贸合作的深入
+提高了“语言+专业”复合型人才的需求</t>
+  </si>
+  <si>
+    <t>（）是马克思主义政党的根本要求。</t>
+  </si>
+  <si>
+    <t>旗帜鲜明讲政治</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>党章是最根本的党内法规，是管党治党的总规矩。</t>
+  </si>
+  <si>
+    <t>《新时代爱国主义教育实施纲要》指出，要把（）结合起来，尊重各国历史特点、文化传统，尊重各国人民选择的发展道路，善于从不同文明中寻求智慧、汲取营养，促进人类和平与发展的崇高事业，共同推动人类文明发展进步。</t>
+  </si>
+  <si>
+    <t>弘扬爱国主义精神与扩大对外开放</t>
+  </si>
+  <si>
+    <t>伟大斗争、伟大工程、伟大事业、伟大梦想，其中起决定性作用的是党的建设新的()。要把新时代坚持和发展中国特色社会主义这场伟大社会革命进行好，我们党必须勇于进行自我革命，把党建设得更加坚强有力。</t>
+  </si>
+  <si>
+    <t>伟大工程</t>
+  </si>
+  <si>
+    <t>2019年6月29日，中美两国元首第二次就贸易摩擦在（）会晤，并达成共识。</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>党的（）是党的根本性建设，决定党的建设方向和效果。</t>
+  </si>
+  <si>
+    <t>党的十九大报告提出要实现小农户与（）发展的有机衔接。</t>
+  </si>
+  <si>
+    <t>现代农业</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，发挥（ ）和（ ）优势，创新教育和学习方式，加快发展面向每个人、适合每个人、更加开放灵活的教育体系，建设学习型社会。</t>
+  </si>
+  <si>
+    <t>网络教育#人工智能</t>
+  </si>
+  <si>
+    <t>李克强在第八次中日韩领导人会议上的讲话中指出，三国要共同践行新的安全理念。我们必须坚持（）、（）、（）、（）的新安全观，基于共同安全利益，追求本地区的整体安全。</t>
+  </si>
+  <si>
+    <t>共同#综合#合作#可持续</t>
+  </si>
+  <si>
+    <t>依法治国首先要坚持依宪治国，依法执政首先要坚持依宪执政。</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，贯彻新时代党的建设总要求，深化党的建设制度改革，坚持依规治党，建立健全以党的（    ）为统领，全面推进党的各方面建设的体制机制</t>
+  </si>
+  <si>
+    <t>政治建设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年9月8日，习近平在全国抗击新冠肺炎疫情表彰大会上指出，中国的抗疫斗争，充分展现了（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>中国精神#中国力量#中国担当</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国国家制度和国家治理体系具有多方面的显著优势。这些显著优势体现在（    ）、（    ）、（    ）、（    ）和坚持全面依法治国等。</t>
+  </si>
+  <si>
+    <t>坚持党的集中统一领导#坚持人民当家作主#坚持全国一盘棋，调动各方面积极性，集中力量办大事#坚持各民族一律平等</t>
+  </si>
+  <si>
+    <t>中法两国在首届上海进口博览会上致力于加强以下哪些方面的合作（）</t>
+  </si>
+  <si>
+    <t>农业#数字化创新#物流#航天航空</t>
+  </si>
+  <si>
+    <t>《新时代爱国主义教育实施纲要》指出，当代中国，爱国主义的本质就是坚持（ ）、（）、（）、（）高度统一。</t>
+  </si>
+  <si>
+    <t>爱国#爱党#爱人民#爱社会主义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，坚持和完善“一国两制”制度体系，推进祖国和平统一。全面准确贯彻“（    ）”、“（    ）”、“（    ）”、（    ）的方针。</t>
+  </si>
+  <si>
+    <t>一国两制#港人治港#澳人治澳#高度自治</t>
+  </si>
+  <si>
+    <t>坚持党对人民军队的（）。建设一支听党指挥、能打胜仗、作风优良的人民军队，是实现‘两个一百年’奋斗目标、实现中华民族伟大复兴的战略支撑。</t>
+  </si>
+  <si>
+    <t>绝对领导</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施乡村振兴战略的目标任务，到2020年，乡村振兴取得（）进展，到2035年，乡村振兴取得进展（），到2050年，乡村（）。</t>
+  </si>
+  <si>
+    <t>重要#决定性#全面振兴</t>
+  </si>
+  <si>
+    <t>一个时代有一个时代的（  ），一代人有一代人的（  ）。</t>
+  </si>
+  <si>
+    <t>问题#使命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>党的十九大报告进一步强调，全面建成小康社会，我们要统筹推进经济建设、政治建设、文化建设、社会建设、生态文明建设，坚定实施（      ）大战略，特别是要坚决打好三大攻坚战，使全面建成小康社会得到人民认可、经得起历史检验。</t>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放眼全球，当今世界正在经历新一轮大发展大变革大调整，人类面临的不稳定不确定因素依然很多。</t>
+  </si>
+  <si>
+    <t>习总书记在“不忘初心、牢记使命”主题教育工作会议中指出，党内存在的一些突出问题，从根源上说都是思想上的问题。从延安整风运动以来，我们党开展历次集中性教育活动，都是以(  )打头。</t>
+  </si>
+  <si>
+    <t>思想教育</t>
+  </si>
+  <si>
+    <t>让沿线各国人民共享“一带一路”共建成果，依赖于沿线各国（）、（）。</t>
+  </si>
+  <si>
+    <t>真正的答案:相向而行#和衷共济 但是试卷的答案是: 互相学习、互相谦让</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平同志关于做好“三农”工作的重要系列论述中，“绿水青山就是金山银山”是他的（）。</t>
+  </si>
+  <si>
+    <t>“两山理论”</t>
+  </si>
+  <si>
+    <t>《新时代爱国主义教育实施纲要》指出，深入开展中国特色社会主义和（）。中国特色社会主义集中体现着国家、民族、人民根本利益。</t>
+  </si>
+  <si>
+    <t>中国梦教育</t>
+  </si>
+  <si>
+    <t>2020年10月2日，国务委员兼外交部长王毅接受中央媒体采访，介绍习近平主席出席联合国成立75周年系列高级别会议情况。指出习近平主席直指全球复苏与发展的难点，提出了有效破解之策：（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>坚持开放融通#坚持合作共赢#坚持改革创新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有始终坚持党对一切工作的领导，才能在更高水平上实现全党全社会（  ）的统一。</t>
+  </si>
+  <si>
+    <t>思想上</t>
+  </si>
+  <si>
+    <t>人与自然是生命共同体，人类必须尊重自然、战胜自然、保护自然。</t>
+  </si>
+  <si>
+    <t>让人民群众过上（），是全面建成小康社会的主题和中心。</t>
+  </si>
+  <si>
+    <t>美好生活</t>
+  </si>
+  <si>
+    <t>2020年9月17日，习近平在湖南省长沙市主持召开基层代表座谈会并发表重要讲话。他强调：只有把（）建设强、把基层政权巩固好，中国特色社会主义的根基才能稳固。</t>
+  </si>
+  <si>
+    <t>基层党组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020年6月，一带一路”国际合作高级别视频会议联合声明中指出：我们重申支持建设高质量、可靠、抗风险、可持续的基础设施，并确保其在全周期内（   ）、（    ）、（    ）、（   ），有助于参与方的可持续发展和发展中国家工业化。 </t>
+  </si>
+  <si>
+    <t>切实可行#价格合理#包容可及#广泛受益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新时代我国社会主要矛盾是人民日益增长的美好生活需要与落后的社会生产之间的矛盾。</t>
+  </si>
+  <si>
+    <t>2019年2月21日至24日，习近平主席特使、中共中央政治局委员、国务院副总理、中美全面经济对话中方牵头人刘鹤与美国贸易代表莱特希泽、财政部长姆努钦在华盛顿举行（）中美经贸高级别磋商。</t>
+  </si>
+  <si>
+    <t>第七轮</t>
+  </si>
+  <si>
+    <t>《新时代爱国主义教育实施纲要》指出，（）是安邦定国的重要基石。</t>
+  </si>
+  <si>
+    <t>国家安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合国、20国集团、亚太经合组织以及其他区域组织将共建（   ）倡议及其（   ）纳入成果文件，“一带一路”倡议成为全球广受欢迎的公共产品。</t>
+  </si>
+  <si>
+    <t>“一带一路”#核心理念</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，要健全以国家发展规划为战略导向，以财政政策和货币政策为（  ），就业、产业、投资、消费、区域等政策协同发力的宏观调控制度体系。</t>
+  </si>
+  <si>
+    <t>主要手段</t>
+  </si>
+  <si>
+    <t>一带一路倡议与联合国的《2030 年可持续发展议程》具有相似的未来愿景与发展目标。</t>
+  </si>
+  <si>
+    <t>乡村振兴战略必须靠大量经济投入来驱动。</t>
+  </si>
+  <si>
+    <t>（）年中央外事工作会议确立了习近平外交思想的指导地位，这是新中国外交理论建设具有划时代意义的重大成果，为进入新时代的中国外交提供了根本遵循，也为探索解决当今世界各种复杂问题指明了方向。</t>
+  </si>
+  <si>
+    <t>以世界贸易组织为核心的（）体制是国际贸易的基石，是全球贸易健康有序发展的支柱。</t>
+  </si>
+  <si>
+    <t>多边贸易</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，要完善全方位外交布局，推动建设（）、（）、（）的新型国际关系。</t>
+  </si>
+  <si>
+    <t>改革开放前进道路上必须坚定道路自信，理论自信，（  ）自信，文化自信。</t>
+  </si>
+  <si>
+    <t>制度</t>
+  </si>
+  <si>
+    <t>“新亚欧大陆桥”的主要路线是东起太平洋西岸（）等中国东部沿海港口，西可达大西洋东岸荷兰的鹿特丹、比利时的安特卫普等港口，横贯亚欧两大洲中部地带。</t>
+  </si>
+  <si>
+    <t>连云港</t>
+  </si>
+  <si>
+    <t>习近平总书记指出，中国正在建设更加（）的社会保障制度，健全公共服务体系，创新社会治理体制。</t>
+  </si>
+  <si>
+    <t>公平可持续</t>
+  </si>
+  <si>
+    <t>乡村振兴，必须遵循（）规律，规划先行，分类推进。</t>
+  </si>
+  <si>
+    <t>乡村发展</t>
+  </si>
+  <si>
+    <t>根据《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，深化行政执法体制改革，（  ）减少不必要的行政执法事项。</t>
+  </si>
+  <si>
+    <t>最大限度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国务院总理李克强签署国务院令，公布《政府投资条例》，自2019年7月1日起施行。《条例》规定了以下内容：（）、（）、（）、（）以及严格项目实施和事中事后监管 
+ </t>
+  </si>
+  <si>
+    <t>明确界定政府投资范围。#明确政府投资的主要原则和基本要求#规范和优化政府投资决策程序。#明确政府投资年度计划的相关要求</t>
+  </si>
+  <si>
+    <t>2020年8月26日，在澜湄合作第（）次领导人会议成功召开之际，中国驻老挝大使姜再冬在使馆网站发表文章《澜湄合作谱新篇开新局闯新路》。</t>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改革开放只有进行时，没有将来时。</t>
+  </si>
+  <si>
+    <t>（   ）是中国特色社会主义最本质的特征，是中国特色社会主义制度的最大优势，</t>
+  </si>
+  <si>
+    <t>中国共产党的领导</t>
+  </si>
+  <si>
+    <t>面对世界百年未有之大变局，面对澳门内外环境新变化，在庆祝澳门回归祖国20周年大会暨澳门特别行政区第五届政府就职典礼上，习近平主席提出了4点希望：（）、（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>坚持与时俱进，进一步提升特别行政区治理水平#坚持开拓创新，进一步推动经济持续健康发展#坚持以人为本，进一步保障和改善民生#坚持包容共济，进一步促进社会和谐稳定</t>
+  </si>
+  <si>
+    <t>2019年12月20日，是《中华人民共和国澳门特别行政区基本法》实施（）周年。</t>
+  </si>
+  <si>
+    <t>中国要强，（）必须强；中国要美，（）必须美；中国要富，（）必须富。</t>
+  </si>
+  <si>
+    <t>农业#农村#农民</t>
+  </si>
+  <si>
+    <t>十九届四中全会提出，坚持和完善中国特色社会主义行政体制，构建职责明确、依法行政的（     ）体系。</t>
+  </si>
+  <si>
+    <t>政府治理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共中央办公厅、国务院办公厅印发的《关于隆重庆祝中华人民共和国成立70周年广泛组织开展“我和我的祖国”群众性主题宣传教育活动的通知》强调，活动要突出思想内涵,把（）、把（）、把（）、把（）,进一步振奋精神、鼓舞士气。</t>
+  </si>
+  <si>
+    <t>成就讲足#经验讲透#形势讲清#前景讲明</t>
+  </si>
+  <si>
+    <t>2020年9月29日，中共中央总书记、国家主席习近平同越共中央总书记、国家主席阮富仲通电话。在通话中，习近平强调，中国和越南山水相连，两国在（）、发展道路、（）、（）等方面高度一致，把双边关系发展好符合两国和两国人民根本利益。</t>
+  </si>
+  <si>
+    <t>意识形态#社会制度#价值理念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平强调，衡量干部是否有理想信念，关键看是否对党（  ）。</t>
+  </si>
+  <si>
+    <t>忠诚</t>
+  </si>
+  <si>
+    <t>我国是农业大国，（）是安民之基、治国之要。</t>
+  </si>
+  <si>
+    <t>重农固本</t>
+  </si>
+  <si>
+    <t>改革开放是决定当代中国命运的关键一招。</t>
+  </si>
+  <si>
+    <t>一个国家实行什么样的主义，关键要看这个主义能否解决这个国家面临的（  ）课题。</t>
+  </si>
+  <si>
+    <t>历史性</t>
+  </si>
+  <si>
+    <t>习近平强调，（  ）是一个人精神修养的集中体现。</t>
+  </si>
+  <si>
+    <t>人格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年1月18日，中德双方围绕“扩大双向开放，深化务实合作，推动中德（ ）迈上新台阶”这一主题进行讨论达成了很多共识。</t>
+  </si>
+  <si>
+    <t>财金关系</t>
+  </si>
+  <si>
+    <t>台湾民进党当局“挟洋自重”、倒行逆施，不断推进“台独”活动，挑动两岸对立，导致两岸关系更加复杂严峻。因此我们要清楚的认识到“台独”势力及其活动是（      ），是两岸关系和平发展的最大障碍。</t>
+  </si>
+  <si>
+    <t>损害国家主权和领土完整</t>
+  </si>
+  <si>
+    <t>2019年是《告台湾同胞书》发表40周年。</t>
+  </si>
+  <si>
+    <t>中国特色社会主义理论体系是指导党和人民实现中华民族伟大复兴的正确理论。</t>
+  </si>
+  <si>
+    <t>中美贸易摩擦中，美国政府滥用“国家安全”概念推行贸易保护措施。</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，中国秉承（）的全球治理观，倡导国际关系民主化，坚持国家不分大小、强弱、贫富一律平等。</t>
+  </si>
+  <si>
+    <t>共商共建共享</t>
+  </si>
+  <si>
+    <t>“一国两制”的提出，本来就是为了照顾台湾现实情况，维护台湾同胞利益福祉。“一国两制”在台湾的具体实现形式会充分考虑台湾现实情况，会充分吸收两岸各界意见和建议，会充分照顾到台湾同胞利益和感情。因此“一国两制”是实现国家统一的（   ）。</t>
+  </si>
+  <si>
+    <t>最佳方式</t>
+  </si>
+  <si>
+    <t>2020年10月10日，中共中央总书记习近平就朝鲜劳动党成立（）周年向朝鲜劳动党委员长金正恩致贺电。</t>
+  </si>
+  <si>
+    <t>党的()是党的根本性建设，决定党的建设方向和效果。</t>
+  </si>
+  <si>
+    <t>把全面从严治党引向深入，需要把（  ）贯穿其中，做到标本兼治、施之长远。</t>
+  </si>
+  <si>
+    <t>制度建设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要以提升（）为重点，突出政治功能，把企业、农村、机关、学校、科研院所、街道社区、社会组织等基层党组织建设成为宣传党的主张、贯彻党的决定、领导基层治理、团结动员群众、推动改革发展的坚强战斗堡垒。</t>
+  </si>
+  <si>
+    <t>组织力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共中央办公厅、国务院办公厅印发的《关于隆重庆祝中华人民共和国成立70周年广泛组织开展“我和我的祖国”群众性主题宣传教育活动的通知》强调，要着重增强活动的（）、（）、（）</t>
+  </si>
+  <si>
+    <t>仪式感#参与感#现代感</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，在新发展理念中（   ）是其中一大理念。</t>
+  </si>
+  <si>
+    <t>绿色发展</t>
+  </si>
+  <si>
+    <t>2018年全国教育大会上，习近平指出要把立德树人融入（    ）、（     ）、（    ）各环节，贯穿基础教育、职业教育、高等教育各领域，学科体系、教学体系、教材体系、管理体系要围绕这个目标来设计，教师要围绕这个目标来教，学生要围绕这个目标来学。</t>
+  </si>
+  <si>
+    <t>思想道德教育#文化知识教育#社会实践教育</t>
+  </si>
+  <si>
+    <t>全面完成脱贫任务，要坚持精准扶贫，以更加有力的举措、更加精细的工作，在普遍实现“两不愁”基础上，全面解决（  ）和（  ）问题，确保剩余贫困人口如期脱贫。</t>
+  </si>
+  <si>
+    <t>三保障；#饮水安全；</t>
+  </si>
+  <si>
+    <t>2020年1月，中共中央印发的《中国共产党党和国家机关基层组织工作条例》指出，机关正式党员（）人以上的，成立党支部。正式党员（）人以上的党支部，设立支部委员会</t>
+  </si>
+  <si>
+    <t>3#7</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区坚持开放合作，互利共赢原则。以“（）”建设为重点，构建开放型经济新体制，打造高水平开放平台，对接高标准贸易投资规则，加快培育国际合作和竞争新优势。</t>
+  </si>
+  <si>
+    <t>一带一路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年10月，以“促进创新与可持续发展，共创大湾区新机遇”为主题的粤港澳大湾区论坛在（）举办，与会者认为香港应放眼大湾区广阔市场，结合自身优势，不断推动创新，真正抓住发展契机。 </t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，中国秉持共商共建共享的全球治理观，倡导多边主义和国际关系民主化，推动全球经济治理机制变革。</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，国家行政管理承担着按照党和国家决策部署推动经济社会发展、管理社会事务、服务人民群众的重大职责。</t>
+  </si>
+  <si>
+    <t>推进乡村振兴战略需要全社会多主体、多力量、（）的介入与协同。</t>
+  </si>
+  <si>
+    <t>多机制</t>
+  </si>
+  <si>
+    <t>《新时代公民道德建设实施纲要》指出：全社会都要关心帮助支持青少年成长发展，完善（    ）相结合的思想道德教育体系。</t>
+  </si>
+  <si>
+    <t>家庭、学校、政府、社会</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，全面推进（）、（）、（）、（），推进法治中国建设。</t>
+  </si>
+  <si>
+    <t>科学立法#严格执法#公正司法#全民守法</t>
+  </si>
+  <si>
+    <t>2020年1月，习近平总书记在“不忘初心、牢记使命”主题教育总结大会强调，不忘初心、牢记使命，必须完善和发展（），形成（）。</t>
+  </si>
+  <si>
+    <t>党内制度#长效机制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年7月10日，国务院总理李克强主持召开国务院常务会议，会议确定了进一步稳外贸的措施。一是（）。二是（）。三是（）、加工贸易保税维修等新业态，培育进口贸易示范区。四是（）。 </t>
+  </si>
+  <si>
+    <t>完善财税政策#强化金融支持#加快发展跨境电商#提升贸易便利化水平</t>
+  </si>
+  <si>
+    <t>《中国共产党纪律处分条例》修订坚持问题导向，针对（）的突出问题和监督执纪中发现的新型违纪行为，扎紧制度篱笆，实现制度建设与时俱进。</t>
+  </si>
+  <si>
+    <t>管党治党</t>
+  </si>
+  <si>
+    <t>实施乡村振兴战略，要建立健全（）的体制机制和政策体系。</t>
+  </si>
+  <si>
+    <t>城乡融合发展</t>
+  </si>
+  <si>
+    <t>推进“一带一路”建设既是中国（）的需要，也是加强和亚欧非及世界各国互利合作的需要。</t>
+  </si>
+  <si>
+    <t>扩大和深化对外开放</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，要坚持权责统一，盯紧权力运行各个环节，完善发现问题、纠正偏差、精准问责有效机制，压减权力（）空间。</t>
+  </si>
+  <si>
+    <t>设租寻租</t>
+  </si>
+  <si>
+    <t>推动全面从严治党再出发，应长期坚持、不断深化“六个相统一”，做到既解决思想问题，也解决()，二者同向发力、同时发力；</t>
+  </si>
+  <si>
+    <t>制度问题</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，发展社会主义先进文化，必须坚定文化自信，牢牢把握社会主义先进文化前进方向，围绕（ ）、（ ）、育新人、（ ）、（ ）的使命任务，好构筑中国精神、中国价值、中国力量。</t>
+  </si>
+  <si>
+    <t>举旗帜#聚民心#兴文化#展形象</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>我国国家制度和国家治理体系具有多方面的显著优势，这些显著优势体现在多个方面，以下不属于显著优势的是（&amp;n×sp;&amp;n×sp;&amp;n×sp;&amp;n×sp;&amp;n×sp;&amp;n×sp;&amp;n×sp;）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年7月1日，第十三届夏季达沃斯论坛开幕，来自一百多个国家和地区的1800多名政商嘉宾将齐聚大连，本次论坛的主题是（&amp;n×sp;&amp;n×sp;&amp;n×sp; ）。
+</t>
+  </si>
+  <si>
+    <t>2020年10月17日，中共中央政治局召开会议&amp;n×sp;审议《成渝地区双城经济圈建设规划纲要》，会议指出突出（）、（）中心城市的带动作用，推动成渝地区双城经济圈建设。</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>根据《中国共产党农村工作条例》（2019），以提升组织力为重点，突出政治功能，把（）成为宣传党的主张、贯彻党的决定、领导基层治理、团结动员群众、推动改革发展的坚强战斗堡垒，发挥党员先锋模范作用。</t>
+  </si>
+  <si>
+    <t>农村基层党组织建设</t>
+  </si>
+  <si>
+    <t>中共中央总书记习近平在主持“牢记初心使命，推进自我革命”第十五次集体学习时指出，在新时代把党的自我革命推向深入，把党建设成为始终（  ）、（  ）、（  ）、经得起各种风浪考验、朝气蓬勃的马克思主义执政党。</t>
+  </si>
+  <si>
+    <t>走在时代前列#人民衷心拥护#勇于自我革命</t>
+  </si>
+  <si>
+    <t>乡村振兴需要坚持党的领导，这也就意味着要以政府为主导忽视农民的主体地位。</t>
+  </si>
+  <si>
+    <t>2020年9月8日，全国抗击新冠肺炎疫情表彰大会在北京人民大会堂隆重举行。中共中央总书记、国家主席、中央军委主席习近平在大会上发表重要讲话。习总书记表示，中国以实际行动帮助挽救了全球成千上万人的生命，以实际行动彰显了中国推动构建（  ）的真诚愿望！</t>
+  </si>
+  <si>
+    <t>深化党和国家机构改革，既要立足于实现第一个百年奋斗目标，从党和国家机构职能上为()提供坚强保障；又要着眼于实现第二个百年奋斗目标，为形成更加完善的中国特色社会主义制度创造有利条件。</t>
+  </si>
+  <si>
+    <t>决胜全面建成小康社会</t>
+  </si>
+  <si>
+    <t>2019年是中俄建交70周年，在两国关系发展史上具有里程碑意义。在今年这一重要年份，习近平主席和普京总统共同宣布发展中俄（    ）关系</t>
+  </si>
+  <si>
+    <t>新时代全面战略协作伙伴</t>
+  </si>
+  <si>
+    <t>从奋斗目标看，党的十九大到二十大是（）奋斗目标的历史交汇期。</t>
+  </si>
+  <si>
+    <t>“两个一百年”</t>
+  </si>
+  <si>
+    <t>2020年2月15日，国家主席习近平亲切复信美国犹他州卡斯卡德小学学生，鼓励他们继续努力学习中文，了解(       )，为增进中美两国人民友谊作出贡献。</t>
+  </si>
+  <si>
+    <t>中国文化</t>
+  </si>
+  <si>
+    <t>在新的历史条件下，需要通过完善香港、澳门融入国家发展大局、同内地（）、（）机制，支持香港、澳门在国家改革发展大局中找到自己合适的角色定位，才能实现新的发展。</t>
+  </si>
+  <si>
+    <t>协同发展#优势互补</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，我们通过坚持和完善共建共治共享的社会治理制度，实现社会治理理念的（   ）化、结构的（   ）化、方式的（   ）化、过程的（   ）化。</t>
+  </si>
+  <si>
+    <t>科学#合理#精细#民主</t>
+  </si>
+  <si>
+    <t>中国海关将深耕对外“三智”合作，与更多国家共建“一带一路”海关信息交换共享平台，加快国际贸易“单一窗口”建设与对接，推动“一带一路”相关国家“三智”合作先行先试项目取得早期收获，努力实现（    ）、（    ）、（    ），共促互联互通，为“一带一路”建设注入新的活力。</t>
+  </si>
+  <si>
+    <t>监管智能#治理智能#合作智能</t>
+  </si>
+  <si>
+    <t>“一带一路”建设要加强供应链安全与便利化合作，推进跨境监管程序协调，推动检验检疫证书国际互联网核查，开展（）互认。</t>
+  </si>
+  <si>
+    <t>经认证的经营者</t>
+  </si>
+  <si>
+    <t>2020年08月31日，中共中央政治局召开会议，中共中央总书记习近平主持会议。会议指出，党的十九大以来，以习近平同志为核心的党中央着眼中华民族伟大复兴战略全局和世界百年未有之大变局，持续推进全面从严治党，深化党和国家机构改革，不断加强中央和国家机关（）、（）、（）、（），取得明显成效。</t>
+  </si>
+  <si>
+    <t>政治建设、思想建设、组织建设、党风廉政建设</t>
+  </si>
+  <si>
+    <t>瓜达尔港位于具有重要战略意义的（）的咽喉附近。</t>
+  </si>
+  <si>
+    <t>波斯湾</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，完善香港、澳门融入国家发展大局、同内地优势互补、协同发展机制，推进（    ）建设，支持香港、澳门发展经济、改善民生。</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贯彻党的群众路线，（  ）是基础、是前提，（  ）是重点、是关键。</t>
+  </si>
+  <si>
+    <t>知#行</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，加强对香港、澳门社会特别是公职人员和青少年的宪法和基本法教育、国情教育、中国历史和中华文化教育，增强香港、澳门同胞（    ）和（    ）。</t>
+  </si>
+  <si>
+    <t>国家意识#爱国精神</t>
+  </si>
+  <si>
+    <t>2018年5月，习近平总书记在全国生态环境保护大会上强调，坚持人与自然和谐共生，坚持节约优先、保护优先、修复优先为主的方针。</t>
+  </si>
+  <si>
+    <t>“一带一路”建设要强化多边合作机制作用，发挥（）、（）、（）、（）等现有多边合作机制作用，相关国家加强沟通，让更多国家和地区参与'一带一路'建设。</t>
+  </si>
+  <si>
+    <t>上海合作组织（SCO）#中国-东盟“10+1”#亚太经合组织（√PEC)#大湄公河次区域（GMS）经济合作</t>
+  </si>
+  <si>
+    <t>2019年12月5日国务院印发《中国（）自由贸易试验区总体方案》。这是我国首次在沿边地区设立自贸试验区</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>乡村振兴与推进城镇化不是（）的关系，而是（）、（）的关系。</t>
+  </si>
+  <si>
+    <t>非此即彼#互促共进#相辅相成</t>
+  </si>
+  <si>
+    <t>当地时间2020年9月1日，国务委员兼外长王毅在柏林同德国外长马斯共同会见记者宣称此次欧洲五国之行达成了三点重要共识，即（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>坚持多边主义，抵制单边主义行径#加强团结合作，反对分裂“脱钩”#维护中欧关系大局，妥善管控分歧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2020年6月，一带一路”国际合作高级别视频会议联合声明中指出：我们重视“一带一路”合作项目在经济、社会、财政、金融和环境方面的可持续性，呼吁“一带一路”所有市场参与方（    ），（    ）。 </t>
+  </si>
+  <si>
+    <t>履行企业社会责任#遵守联合国全球契约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《新时代公民道德建设实施纲要》指出：要全面贯彻党的教育方针，坚持社会主义办学方向，坚持育人为本、德育为先，把（    ）作为学生核心素养、纳入学业质量标准，构建德智体美劳全面培养的教育体系。</t>
+  </si>
+  <si>
+    <t>思想品德</t>
+  </si>
+  <si>
+    <t>中共中央国务院印发《新时代爱国主义教育实施纲要》要求，充分发挥（  ）学习平台在爱国主义宣传教育中的作用。</t>
+  </si>
+  <si>
+    <t>澳门特区第五任行政长官选举于2019年8月25日举行，（   ）作为唯一候选人获得392票，得票率达98%，当选为特区第五任行政长官人选。</t>
+  </si>
+  <si>
+    <t>贺一诚</t>
+  </si>
+  <si>
+    <t>为推进“一带一路”建设，中国政府积极推进投资贸易便利化，推进（）改革。</t>
+  </si>
+  <si>
+    <t>区域通关一体化</t>
+  </si>
+  <si>
+    <t>（  ）是我们党始终坚持的根本工作方法。</t>
+  </si>
+  <si>
+    <t>“301调查”是基于美国国内法相关条款开展的贸易调查，衡量并要求其他国家接受美国的知识产权标准和市场准入要求，否则就采取报复性的贸易制裁手段，早在上世纪90年代就被称为（）。</t>
+  </si>
+  <si>
+    <t>“激进的单边主义”</t>
+  </si>
+  <si>
+    <t>2020年8月19日，第17届中国-东盟博览会和中国-东盟商务与投资峰会指挥中心第一次工作会议在（）举行。</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>2019年1月，中共中央办公厅印发了《中国共产党纪律检查机关监督执纪工作规则》（简称《规则》），深入贯彻习近平新时代中国特色社会主义思想和党的十九大精神，以（  ）为根本遵循，坚持和加强党对纪律检查工作的领导，把坚决维护以习近平同志为核心的党中央权威和集中统一领导作为重大政治责任。</t>
+  </si>
+  <si>
+    <t>党章</t>
+  </si>
+  <si>
+    <t>澳门的成功实践告诉我们，不断巩固和发展同“一国两制”实践相适应的社会政治基础，在爱国爱澳旗帜下实现最广泛的团结，是“一国两制”始终沿着正确轨道前进的（）。</t>
+  </si>
+  <si>
+    <t>根本保障</t>
+  </si>
+  <si>
+    <t>2019年3月13日，中国驻美国大使馆与美国国际姐妹城协会在美国首都华盛顿共同举办招待会，纪念中美建交（）周年和中美友好城市合作。</t>
+  </si>
+  <si>
+    <t>中国率先把建立（  ）确定为国家间交往的指导原则。</t>
+  </si>
+  <si>
+    <t>伙伴关系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">截止到2019年9月16日，央行在2019年1月后，连续（）次宣布全面降准。 </t>
+  </si>
+  <si>
+    <t>实现全体人民共同富裕的宏伟目标，最终靠的是（  ）。</t>
+  </si>
+  <si>
+    <t>发展</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，健全有利于更充分更高质量就业的促进机制，就要建立促进创业带动就业、多渠道灵活就业机制，对就业困难人员实行托底帮扶。</t>
+  </si>
+  <si>
+    <t>2019年5月9日，2019全球创投风投大会在（）举行，不少与会者都有这样的共识，要成为一个有活力的城市，必须提高创新能力，最要紧的是实现资本与人才的相互撬动。</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>2020年10月18日国务院新闻办正式对外发布了深圳建设中国特色社会主义先行示范区综合改革试点首批40项授权事项清单。首次采用“实施方案+（）”的方式滚动推进全新方式授权改革。</t>
+  </si>
+  <si>
+    <t>授权清单</t>
+  </si>
+  <si>
+    <t>中国特色社会主义制度是党和人民在长期实践探索中形成的科学制度体系，我国国家治理一切工作和活动都依照中国特色社会主义制度展开</t>
+  </si>
+  <si>
+    <t>《新时代公民道德建设实施纲要》指出：推动践行以（    ）为主要内容的社会公德，鼓励人们在社会上做一个好公民。</t>
+  </si>
+  <si>
+    <t>文明礼貌、助人为乐、爱护公物、保护环境、遵纪守法</t>
+  </si>
+  <si>
+    <t>要坚持城乡融合发展，强化乡村振兴的（）供给。</t>
+  </si>
+  <si>
+    <t>制度性</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》中指出，坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化的总体目标之一是，到我们党成立（     ）时，在各方面制度更加成熟更加定型上取得明显成效</t>
+  </si>
+  <si>
+    <t>一百年</t>
+  </si>
+  <si>
+    <t>以下关于乡村振兴战略的描述中哪一个是不正确的（）。</t>
+  </si>
+  <si>
+    <t>坚持统一化发展路径</t>
+  </si>
+  <si>
+    <t>人民健康是民族昌盛和国家富强的重要标志。</t>
+  </si>
+  <si>
+    <t>2020年8月3日，商务部亚洲司负责人对中韩经贸联委会第24次会议成果进行了解读。中韩双方就常态化疫情防控下推动中韩经贸关系发展及有关区域和多边经贸合作议题深入交换意见 ，并在多个重要领域达成广泛共识：加强双边合作顶层设计、（    ）、（    ）、（    ）、（    ）。</t>
+  </si>
+  <si>
+    <t>深化贸易投资合作#推动产业对接合作#扩大地方经济合作#推进多边区域合作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，坚持不懈开展马克思主义（）、（）、（）、（）宣传教育，打牢中华民族共同体思想基础。</t>
+  </si>
+  <si>
+    <t>祖国观#民族观#文化观#历史观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -933,7 +2746,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,6 +2775,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -983,7 +2816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -998,6 +2831,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1278,30 +3123,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C161"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433:C480"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="60.77734375" customWidth="1"/>
-    <col min="3" max="3" width="107.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.58203125" customWidth="1"/>
+    <col min="3" max="3" width="107.08203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +3168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +3190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1356,9 +3201,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -1367,7 +3212,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1378,7 +3223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +3234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1400,7 +3245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1411,7 +3256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="42">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +3267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1433,7 +3278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1444,7 +3289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1455,7 +3300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1466,7 +3311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1477,7 +3322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1488,7 +3333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1499,7 +3344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1510,7 +3355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1521,7 +3366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1532,7 +3377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1543,7 +3388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1554,7 +3399,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1565,7 +3410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1576,7 +3421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1587,7 +3432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1598,7 +3443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1609,7 +3454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1620,7 +3465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -1631,7 +3476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1642,7 +3487,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -1653,7 +3498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -1664,7 +3509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1675,7 +3520,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -1686,7 +3531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -1697,7 +3542,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -1708,7 +3553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -1719,7 +3564,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -1730,7 +3575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
@@ -1741,7 +3586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -1752,7 +3597,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -1763,7 +3608,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -1774,7 +3619,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
@@ -1785,7 +3630,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>85</v>
       </c>
@@ -1796,7 +3641,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -1807,7 +3652,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
@@ -1818,7 +3663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -1829,7 +3674,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -1840,7 +3685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -1851,7 +3696,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -1862,7 +3707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
@@ -1873,7 +3718,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
@@ -1884,7 +3729,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>101</v>
       </c>
@@ -1895,7 +3740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
@@ -1906,7 +3751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>103</v>
       </c>
@@ -1917,7 +3762,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>105</v>
       </c>
@@ -1925,10 +3770,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>106</v>
       </c>
@@ -1939,7 +3784,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>108</v>
       </c>
@@ -1950,7 +3795,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
@@ -1961,7 +3806,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>112</v>
       </c>
@@ -1972,7 +3817,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>114</v>
       </c>
@@ -1983,7 +3828,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>116</v>
       </c>
@@ -1994,7 +3839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>118</v>
       </c>
@@ -2005,7 +3850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
@@ -2013,133 +3858,133 @@
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3" t="s">
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3" t="s">
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3" t="s">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3" t="s">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="3" t="s">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="4" t="s">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3" t="s">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3" t="s">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3" t="s">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="3" t="s">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3" t="s">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1</v>
@@ -2148,86 +3993,86 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="3" t="s">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="3" t="s">
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="3" t="s">
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3" t="s">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3" t="s">
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3" t="s">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3" t="s">
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1</v>
@@ -2236,20 +4081,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="28">
       <c r="A87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3" t="s">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>1</v>
@@ -2258,18 +4103,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -2280,53 +4125,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3" t="s">
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3" t="s">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="3" t="s">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1</v>
@@ -2335,161 +4180,161 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3" t="s">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3" t="s">
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="3" t="s">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="3" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="3" t="s">
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="3" t="s">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="3" t="s">
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="3" t="s">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="3" t="s">
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="3" t="s">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="3" t="s">
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="3" t="s">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="3" t="s">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>39</v>
       </c>
@@ -2500,53 +4345,53 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="3" t="s">
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="3" t="s">
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" s="3" t="s">
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="3" t="s">
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
@@ -2555,64 +4400,64 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="3" t="s">
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" s="3" t="s">
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="3" t="s">
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="3" t="s">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120" s="3" t="s">
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1</v>
@@ -2621,31 +4466,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="3" t="s">
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="3" t="s">
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1</v>
@@ -2654,42 +4499,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="3" t="s">
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" s="3" t="s">
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="3" t="s">
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1</v>
@@ -2698,18 +4543,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>46</v>
       </c>
@@ -2720,31 +4565,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="3" t="s">
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132" s="3" t="s">
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1</v>
@@ -2753,150 +4598,150 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" s="3" t="s">
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="3" t="s">
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="B136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="3" t="s">
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="B137" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C144" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="B145" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>259</v>
       </c>
@@ -2907,62 +4752,62 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C149" s="3">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>266</v>
       </c>
@@ -2970,54 +4815,54 @@
         <v>1</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>275</v>
       </c>
@@ -3025,40 +4870,3538 @@
         <v>1</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="3" t="s">
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>283</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>285</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>287</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="1" customFormat="1">
+      <c r="A164" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="1" customFormat="1">
+      <c r="A165" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="1" customFormat="1">
+      <c r="A166" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="1" customFormat="1">
+      <c r="A167" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="1" customFormat="1">
+      <c r="A168" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="1" customFormat="1">
+      <c r="A169" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="1" customFormat="1">
+      <c r="A170" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="1" customFormat="1">
+      <c r="A171" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="1" customFormat="1">
+      <c r="A172" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="1" customFormat="1">
+      <c r="A173" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="1" customFormat="1">
+      <c r="A174" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="1" customFormat="1">
+      <c r="A175" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="1" customFormat="1">
+      <c r="A176" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="1" customFormat="1">
+      <c r="A177" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="1" customFormat="1">
+      <c r="A178" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="1" customFormat="1">
+      <c r="A179" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="1" customFormat="1">
+      <c r="A180" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="1" customFormat="1">
+      <c r="A181" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="1" customFormat="1">
+      <c r="A182" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>278</v>
+    <row r="183" spans="1:3" s="1" customFormat="1" ht="42">
+      <c r="A183" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="1" customFormat="1">
+      <c r="A184" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="1" customFormat="1" ht="42">
+      <c r="A185" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="1" customFormat="1">
+      <c r="A186" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="1" customFormat="1">
+      <c r="A187" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="1" customFormat="1">
+      <c r="A188" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="1" customFormat="1">
+      <c r="A189" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="1" customFormat="1">
+      <c r="A190" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="1" customFormat="1">
+      <c r="A191" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="1" customFormat="1">
+      <c r="A192" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" s="1" customFormat="1">
+      <c r="A193" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" s="1" customFormat="1">
+      <c r="A194" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" s="1" customFormat="1">
+      <c r="A195" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" s="1" customFormat="1">
+      <c r="A196" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" s="1" customFormat="1">
+      <c r="A197" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" s="1" customFormat="1">
+      <c r="A198" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" s="1" customFormat="1">
+      <c r="A199" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="1" customFormat="1">
+      <c r="A200" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="1" customFormat="1">
+      <c r="A201" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" s="1" customFormat="1">
+      <c r="A202" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" s="1" customFormat="1">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" s="1" customFormat="1">
+      <c r="A204" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" s="1" customFormat="1">
+      <c r="A205" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" s="1" customFormat="1">
+      <c r="A206" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" s="1" customFormat="1">
+      <c r="A207" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" s="1" customFormat="1">
+      <c r="A208" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" s="1" customFormat="1">
+      <c r="A209" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" s="1" customFormat="1">
+      <c r="A210" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" s="1" customFormat="1">
+      <c r="A211" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" s="1" customFormat="1">
+      <c r="A212" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" s="1" customFormat="1">
+      <c r="A213" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="1" customFormat="1" ht="42">
+      <c r="A214" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" s="1" customFormat="1">
+      <c r="A215" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" s="1" customFormat="1">
+      <c r="A216" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" s="1" customFormat="1">
+      <c r="A217" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="1" customFormat="1">
+      <c r="A218" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" s="1" customFormat="1">
+      <c r="A219" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="1" customFormat="1">
+      <c r="A220" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" s="1" customFormat="1">
+      <c r="A221" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" s="1" customFormat="1">
+      <c r="A222" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="6">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" s="1" customFormat="1">
+      <c r="A223" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" s="1" customFormat="1">
+      <c r="A224" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" s="1" customFormat="1">
+      <c r="A225" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" s="1" customFormat="1">
+      <c r="A226" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" s="1" customFormat="1">
+      <c r="A227" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" s="1" customFormat="1">
+      <c r="A228" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" s="1" customFormat="1">
+      <c r="A229" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" s="1" customFormat="1">
+      <c r="A230" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" s="1" customFormat="1">
+      <c r="A231" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" s="1" customFormat="1">
+      <c r="A232" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" s="1" customFormat="1">
+      <c r="A233" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" s="1" customFormat="1">
+      <c r="A234" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" s="1" customFormat="1">
+      <c r="A235" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" s="1" customFormat="1">
+      <c r="A236" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" s="1" customFormat="1">
+      <c r="A237" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="1" customFormat="1">
+      <c r="A238" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="6">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="70">
+      <c r="A339" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="42">
+      <c r="A369" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C374" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C379" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="42">
+      <c r="A387" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C392" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C402" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C406" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C409" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C414" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C415" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C416" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C421" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C423" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C424" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C425" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C426" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C429" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C430" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C431" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C432" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C433" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C434" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C435" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C436" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C438" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C439" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C440" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C441" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C442" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C443" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C444" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C445" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C446" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C447" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C448" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C449" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C450" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C451" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C452" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C453" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C454" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C457" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C459" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C460" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C462" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C463" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C464" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C465" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C466" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C467" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C468" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C469" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C470" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C471" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C472" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B473" s="1"/>
+      <c r="C473" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C474" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C475" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C476" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C477" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C478" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C479" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C480" s="6" t="s">
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/查询本地题库/副本12.16更新形势与政策必答题库(不完整).xlsx
+++ b/查询本地题库/副本12.16更新形势与政策必答题库(不完整).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上的文件\形势与政策\mon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F40D754-0219-4449-808D-1D14BF3DF36A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FAD8DC-AFA5-43A6-8E81-1CE0BFFC7772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="956">
   <si>
     <t>2019年7月8日，财政部等六部门印发公告，至2025年年底，提供社区养老、托育、家政服务取得的收入，免征（）。</t>
   </si>
@@ -942,10 +942,6 @@
   <si>
     <t>政府负责#民主协商#公众参与#科技支撑</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织、利用宗教活动反党#破坏民族团结#搞有组织的拉票贿选或者用公款拉票贿选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，党的十九届四中全会《决定》提出完善党委领导、（   ）、（   ）、社会协同、(   )、法治保障、(   )的社会治理体系</t>
@@ -2737,6 +2733,442 @@
   <si>
     <t>祖国观#民族观#文化观#历史观</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平指出，促进（）是政法工作的核心价值追求。保障人民安居乐业是政法工作的根本目标。</t>
+  </si>
+  <si>
+    <t>社会公平正义</t>
+  </si>
+  <si>
+    <t>振兴乡村产业，最核心的产业是工业。</t>
+  </si>
+  <si>
+    <t>习近平指出，“两不愁三保障”，很重要的一条就是（）要有保障。</t>
+  </si>
+  <si>
+    <t>义务教育</t>
+  </si>
+  <si>
+    <t>法律是治国之重器，纪律是治党之戒尺。</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，中国必须统筹国内国际两个大局，高举（）、（）、（）、（）旗帜。</t>
+  </si>
+  <si>
+    <t>和平#发展#合作#共赢</t>
+  </si>
+  <si>
+    <t>2019年10月26日至27日在北京举行的第十五届“北京—东京论坛”的主题为“（）、（）——中日在维护亚洲及世界和平与发展中应承担的责任”</t>
+  </si>
+  <si>
+    <t>新时代#新期待</t>
+  </si>
+  <si>
+    <t>党员在法律规定的投票、选举活动中违背组织原则搞非组织活动，组织、怂恿、诱使他人投票、表决的，且情节较重的，给予撤销党内职务或（）处分。</t>
+  </si>
+  <si>
+    <t>留党察看</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，加强意识形态领域工作，就要坚持（  ）在意识形态领域指导地位的根本制度。</t>
+  </si>
+  <si>
+    <t>习近平总书记强调，“新时代是（）新时代，而不是别的什么新时代”。</t>
+  </si>
+  <si>
+    <t>中国特色社会主义</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，要理顺中央和地方权责关系，加强中央宏观事务管理，维护国家（    ）、（    ）、（    ）。</t>
+  </si>
+  <si>
+    <t>法制统一#政令统一#市场统一</t>
+  </si>
+  <si>
+    <t>中共中央办公厅、国务院办公厅印发的《关于隆重庆祝中华人民共和国成立70周年广泛组织开展“我和我的祖国”群众性主题宣传教育活动的通知》强调，各地区各部门要把握正确方向，坚定不移地同以习近平同志为核心的党中央保持高度一致，坚持团结稳定鼓劲、正面宣传为主。</t>
+  </si>
+  <si>
+    <t>习近平新时代中国特色社会主义思想是不断发展的（）理论，在指导新时代伟大社会革命和伟大自我革命的历史进军中，必将随着中国特色社会主义伟大实践的深入推进而持续发展、不断丰富、更加完善。</t>
+  </si>
+  <si>
+    <t>开放的</t>
+  </si>
+  <si>
+    <t>根据中共中央印发的《社会主义学院工作条例》，地方社会主义学院是本级党委直属事业单位，由本级党委统战部门指导和管理。</t>
+  </si>
+  <si>
+    <t>小康不小康，关键看老乡，关键看脱贫攻坚工作做得怎么样。全面小康路上一个也不能少。（）才是社会主义。</t>
+  </si>
+  <si>
+    <t>2019年11月18日，国务院印发《中国（江苏）自由贸易试验区总体方案》，批准设立涵盖（）、（）、（）三个片区的江苏自贸试验区。</t>
+  </si>
+  <si>
+    <t>南京#苏州#连云港</t>
+  </si>
+  <si>
+    <t>推动全面从严治党向纵深发展，必须要有法治思维，依规治党。</t>
+  </si>
+  <si>
+    <t>党员领导干部要立起遵规守纪、心有所畏的样子，手里要始终拿着一把尺子。这把尺子就是党的政治纪律和()。</t>
+  </si>
+  <si>
+    <t>政治规矩</t>
+  </si>
+  <si>
+    <t>2018年10月25日，中朝祭扫友谊塔纪念中国人民志愿军赴朝参战（）周年</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，中央军委实行党委负责制是坚持党对人民军队绝对领导的根本实现形式。</t>
+  </si>
+  <si>
+    <t>中国目前已成为泰国第（）大贸易伙伴，而泰国是中国在东盟第三大贸易伙伴。</t>
+  </si>
+  <si>
+    <t>党的十九届四中全会提出，（      ）是党和人民在长期实践探索中形成的科学制度体系，我国国家治理一切工作和活动都依照此展开。</t>
+  </si>
+  <si>
+    <t>中国特色社会主义制度</t>
+  </si>
+  <si>
+    <t>建设现代化经济体系，深化供给侧结构性改革，要加快实施（）战略、（）战略、（）发展战略。</t>
+  </si>
+  <si>
+    <t>创新驱动发展#乡村振兴#区域协调</t>
+  </si>
+  <si>
+    <t>习近平总书记强调：“要牢固树立（）的观念。在生态环境保护问题上，就是要不能越雷池一步，否则就应该受到惩罚。”</t>
+  </si>
+  <si>
+    <t>生态红线</t>
+  </si>
+  <si>
+    <t>习近平指出，新中国成立70周年，是进行“”教育的最好时间节点。</t>
+  </si>
+  <si>
+    <t>不忘初心，牢记使命</t>
+  </si>
+  <si>
+    <t>板门店宣言承诺包括（）、（）、（）、（）。</t>
+  </si>
+  <si>
+    <t>韩朝双方将全面停止“敌对行为”#加强交流合作#在开城设立南北共同永久联络事务所#举行离散家属会面等活动</t>
+  </si>
+  <si>
+    <t>2019是新中国成立70周年，是全面建成（）、实现第一个百年奋斗目标的关键之年。</t>
+  </si>
+  <si>
+    <t>小康社会</t>
+  </si>
+  <si>
+    <t>外交部发言人耿爽2019年3月18日在例行记者会上表示，中方坚决反对美方有关人士对中国（）的无端指责，已就此向美方提出严正交涉。</t>
+  </si>
+  <si>
+    <t>人权状况</t>
+  </si>
+  <si>
+    <t>党的十九大报告提出“必须把维护中央对香港、澳门特别行政区全面管治权和保障特别行政区高度自治权有机结合起来，确保‘一国两制’方针(     )、(     )，确保‘一国两制’实践(     )、(     )”这一重大政治论断。</t>
+  </si>
+  <si>
+    <t>不会变#不动摇#不变形#不走样</t>
+  </si>
+  <si>
+    <t>按照香港特别行政区订立的《禁止蒙面规例》规定，任何人不得在身处以下活动时，使用相当可能阻止识辨身份的蒙面物品，包括非法集结、未经批准集结等，一经定罪，可处第4级罚款及监禁（    ）年。</t>
+  </si>
+  <si>
+    <t>以下不属于《中国制造2025》的领域是（）。</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>《新时代公民道德建设实施纲要》指出：新时代公民道德建设要把（   ）、（  ）、（  ）、（  ）建设作为着力点。</t>
+  </si>
+  <si>
+    <t>社会公德#职业道德#家庭美德#个人品德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“一带一路”在投资贸易中要突出生态文明理念，加强生态环境、生物多样性和应对气候变化合作，共建（）丝绸之路。</t>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国共产党是中国（  ）的先锋队，同时是（  ）和（  ）的先锋队。</t>
+  </si>
+  <si>
+    <t>工人阶级#中国人民#中华民族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年10月15日发布的《日本蓝皮书：日本研究报告（2020）》指出，新冠肺炎疫情蔓延肆虐，明显影响国际形势与国家间关系。中日关系发展的正常日程及回暖节奏虽然因这一突发事件受到干扰，但大局和基本面未生逆转性异变。</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，共建的（   ）来自人民，共治的（   ）出自人民，共享的（   ）为了人民。</t>
+  </si>
+  <si>
+    <t>力量#智慧#成果</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，坚持全国武装力量由（    ）统一领导和指挥，完善贯彻军委主席负责制的体制机制，严格落实军委主席负责制各项制度规定。</t>
+  </si>
+  <si>
+    <t>军委主席</t>
+  </si>
+  <si>
+    <t>香港特区政府行政长官林郑月娥2019年10月4日举行记者会，宣布引用《紧急情况规例条例》（紧急法）订立（      ）。</t>
+  </si>
+  <si>
+    <t>《禁止蒙面规例》</t>
+  </si>
+  <si>
+    <t>为庆祝中华人民共和国成立70周年,中共中央办公厅、国务院办公厅印发了《关于隆重庆祝中华人民共和国成立70周年广泛组织开展“我和我的祖国”群众性主题宣传教育活动的通知》，《通知》强调紧紧围绕隆重庆祝中华人民共和国成立70周年,大力弘扬以（）为核心的伟大民族精神,在全国城乡广泛开展形式多样、内容丰富的群众性主题宣传教育活动。</t>
+  </si>
+  <si>
+    <t>爱国主义</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，必须坚持社会主义基本经济制度，充分发挥市场在资源配置中的（  ）作用，更好发挥政府作用，全面贯彻新发展理念，坚持以供给侧结构性改革为主线，加快建设现代化经济体系。</t>
+  </si>
+  <si>
+    <t>决定性</t>
+  </si>
+  <si>
+    <t>2019年9月5日，中央宣传部、全国总工会、共青团中央、全国妇联在（）联合举办“我和我的祖国”百姓宣讲活动全国宣讲报告会。</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>2019年我国宏观政策要强化（），继续实施积极的财政政策和稳健的货币政策，适时预调微调，稳定总需求</t>
+  </si>
+  <si>
+    <t>逆周期调节</t>
+  </si>
+  <si>
+    <t>中共中央印发的《社会主义学院工作条例》指出，社会主义学院是中国共产党领导的（  ）性质的政治学院，是民主党派和无党派人士的联合党校，是统一战线人才教育培养的主阵地，是开展党的统一战线工作的重要部门，是党和国家干部教育培训体系的重要组成部分。</t>
+  </si>
+  <si>
+    <t>统一战线</t>
+  </si>
+  <si>
+    <t>乡村振兴战略是是关系全面建设社会主义现代化国家的（）、（）任务，是新时代三农工作（）。</t>
+  </si>
+  <si>
+    <t>全局性#历史性#总抓手</t>
+  </si>
+  <si>
+    <t>习总书记在“不忘初心、牢记使命”主题教育工作会议中指出，开展这次主题教育，就是要继续教育引导广大党员干部自觉践行党的根本宗旨，把（  ）、（  ）深深植根于（  ）、具体落实到行动上。</t>
+  </si>
+  <si>
+    <t>群众观点#群众路线#思想中</t>
+  </si>
+  <si>
+    <t>党的十九大决定，以(  )领导干部为重点，在全党开展“不忘初心、牢记使命”主题教育。</t>
+  </si>
+  <si>
+    <t>县处级以上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平强调，到2020年稳定实现农村贫困人口（）,不愁穿，（）,（）,（），是贫困人口脱贫的基本要求和核心指标，直接关系攻坚战质量。</t>
+  </si>
+  <si>
+    <t>不愁吃#义务教育#基本医疗#住房安全有保障</t>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平新时代中国特色社会主义思想，正是在（）、（）、（）的过程中创立并不断丰富发展的。</t>
+  </si>
+  <si>
+    <t>把握世界发展大势#应对全球共同挑战#维护人类共同利益</t>
+  </si>
+  <si>
+    <t>面对新冠疫情，中方积极响应联合国发起的全球人道应对计划，向（  ）多个国家和国际组织提供物资援助。</t>
+  </si>
+  <si>
+    <t>深化两岸融合发展是实现两岸同胞共同发展、促进心灵契合、夯实和平统一基础的重要途径。大陆将坚持贯彻（    ）的发展思想，对台胞一视同仁，像为大陆百姓服务那样造福台湾同胞。</t>
+  </si>
+  <si>
+    <t>以人民为中心</t>
+  </si>
+  <si>
+    <t>古代丝绸之路的主要运输工具是（）。</t>
+  </si>
+  <si>
+    <t>骆驼和马</t>
+  </si>
+  <si>
+    <t>中共中央总书记习近平在主持“牢记初心使命，推进自我革命”第十五次集体学习时指出，我们党要求全党同志不忘初心、牢记使命，就是要提醒全党同志，党的初心和使命是党的（  ）、（  ）、（  ）的集中体现</t>
+  </si>
+  <si>
+    <t>性质宗旨#理想信念#奋斗目标</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，坚持和完善中国特色社会主义制度，推进国家治理体系和治理能力现代化，就要坚持和完善（ ），满足人民日益增长的美好生活需要。</t>
+  </si>
+  <si>
+    <t>统筹城乡的民生保障制度</t>
+  </si>
+  <si>
+    <t>习总书记在“不忘初心、牢记使命”主题教育工作会议中指出，我们党面临的“四大考验”是长期的、复杂的，面临的“四种危险”是尖锐的、严峻的，党内存在的（  ）、（  ）、（  ）、（  ）等突出问题尚未得到根本解决。</t>
+  </si>
+  <si>
+    <t>思想不纯#政治不纯#组织不纯#作风不纯</t>
+  </si>
+  <si>
+    <t>要坚定不移推动高质量发展，扭住深化供给侧结构性改革这条主线，把制造业（）发展放到更加突出的位置，加快构建市场竞争力强、可持续的现代产业体系。</t>
+  </si>
+  <si>
+    <t>2019年12月21日，美国将2020财年国防授权法案签署成法，在该法案中塞入（    ）、（    ）、（    ）等多项涉华消极条款，这些条款罔顾事实、充满偏见，粗暴干涉中国内政。</t>
+  </si>
+  <si>
+    <t>涉台#涉港#涉疆</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》指出，完善特别行政区同宪法和基本法实施相关的制度和机制，坚持以（    ）为主体的“港人治港”、“澳人治澳”，提高特别行政区依法治理能力和水平。</t>
+  </si>
+  <si>
+    <t>爱国者</t>
+  </si>
+  <si>
+    <t>五年来，全球舆论对“一带一路”倡议的态度经历了“观望—质疑—支持—(   )”的转变，</t>
+  </si>
+  <si>
+    <t>合作</t>
+  </si>
+  <si>
+    <t>“一带一路”不断走深走实、获得越来越多的认可。五年来，共建“一带一路”倡议及其核心理念被纳入联合国、二十国集团、亚太经合组织、上合组织等重要国际机制成果文件之中，彰显了“(      )”和“(     )”对全球治理的重要贡献。</t>
+  </si>
+  <si>
+    <t>中国理念#中国方案</t>
+  </si>
+  <si>
+    <t>2020年1月9日，中共中央印发《关于认真学习贯彻习近平总书记在“不忘初心、牢记使命”主题教育总结大会上的重要讲话的通知》，指出，各地区各部门各单位要贯彻新时代党的建设总要求，以这次主题教育为新的起点，不断增强党（）、（）、（）、（）的能力，把全面从严治党的要求真正落到实处，坚决同一切可能动摇党的根基、阻碍党的事业的现象作斗争，厚植党的执政根基，把我们党建设得更加坚强有力。</t>
+  </si>
+  <si>
+    <t>自我净化#自我完善#自我革新#自我提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共中央国务院印发《新时代爱国主义教育实施纲要》，把（  ）主题融入贯穿媒体融合发展。</t>
+  </si>
+  <si>
+    <t>爱国主义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中国推动正式成立了“一带一路”绿色发展国际联盟，参与面、影响面大，截至2019年9月，共有(   )多家相关的政府机构、企业、智库和国际组织作为成员参与其中。 </t>
+  </si>
+  <si>
+    <t>中国特色社会主义进入新时代，这意味着，（）在二十一世纪的中国焕发出强大生机活力，在世界上高高举起了中国特色社会主义伟大旗帜。</t>
+  </si>
+  <si>
+    <t>科学社会主义</t>
+  </si>
+  <si>
+    <t>改革开放后，我国社会主义现代化建设先后形成了四个核心概念以及相应四个阶段的建设目标——小康社会、全面小康社会、基本实现现代化和全面实现现代化，时间节点分别是（     ）、（      ）、（      ）、（      ）。</t>
+  </si>
+  <si>
+    <t>2002#2020#2035#2050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年4月28日，外交部副部长乐玉成接受美国全国广播公司（NBC）电视专访，强调中方通报的疫情数据经得起检验，反映的是（  ）。</t>
+  </si>
+  <si>
+    <t>中国经验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年11月20日至23日，首届“世界5G大会”在（）举办。围绕“展成就、望前瞻”“智慧城市、智生活”等六大主题，展现5G发展最新成就和最新场景应用案例。 </t>
+  </si>
+  <si>
+    <t>亦庄</t>
+  </si>
+  <si>
+    <t>从发展水平上看，全面小康社会是“同一水平的小康”。</t>
+  </si>
+  <si>
+    <t>1月13日，美国财政部发表声明，将中国移出（    ）名单。美国财长姆努钦表示，中国非常克制，并没有参与竞争性汇率贬值，并且行为很负责任，透明度很高。</t>
+  </si>
+  <si>
+    <t>汇率操纵国</t>
+  </si>
+  <si>
+    <t>国际化人才己经成为提高综合国力和国际竞争力的战略资源。</t>
+  </si>
+  <si>
+    <t>（          ），中国共产党第十九届中央委员会第四次全体会议审议通过了《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》。</t>
+  </si>
+  <si>
+    <t>（  ），是十八大以来党中央管党兴党、治国理政的重大政治成就；所积累的经验、所创新的方法，是我们党在新的历史起点上继续前行的宝贵财富。</t>
+  </si>
+  <si>
+    <t>全面从严治党</t>
+  </si>
+  <si>
+    <t>《中共中央关于坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化若干重大问题的决定》中指出，坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化的总体目标之一是，到新中国成立（     ）时，全面实现国家治理体系和治理能力现代化。</t>
+  </si>
+  <si>
+    <t>2019年9月23日，“伟大历程 辉煌成就——庆祝中华人民共和国成立70周年大型成就展”开幕式在（  ）展览馆举行。</t>
+  </si>
+  <si>
+    <t>中国外交部发布的《中国关于联合国成立75周年立场文件》指出，（）仍是当今时代主题，新兴市场国家和发展中国家振兴的大势没有改变，世界走向多极化的大势没有改变，经济全球化在曲折中前行的大势也没有改变。</t>
+  </si>
+  <si>
+    <t>和平与发展</t>
+  </si>
+  <si>
+    <t>党的十九大报告提出，全面推进党的（）、（）、组织建设、作风建设、( )，把制度建设贯穿其中。</t>
+  </si>
+  <si>
+    <t>政治建设#思想建设#纪律建设</t>
+  </si>
+  <si>
+    <t>国家税务总局获表示，从2020年起，服务贸易等项目对外支付税务备案电子化在全国范围内启动。</t>
+  </si>
+  <si>
+    <t>小康社会不是一个独立的历史时期，而是中国现代化进程中的一个发展阶段，是在中国社会主义初级阶段，在中国共产党的领导下，全体中国人民万众一心，艰苦奋斗，摆脱贫穷落后状态走上比较富裕幸福生活的一个发展阶段。</t>
+  </si>
+  <si>
+    <t>把从严管理干部贯彻落实到干部队伍建设全过程，坚持（）、（）、（），让每一个干部都深刻懂得，当干部就必须付出更多辛劳、接受更严格的约束。</t>
+  </si>
+  <si>
+    <t>从严教育#从严管理#从严监督</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年9月8日，习近平在全国抗击新冠肺炎疫情表彰大会上指出，充分展现了中国共产党领导和我国社会主义制度的（），充分展现了中国人民和中华民族的伟大力量，充分展现了中华文明的深厚底蕴，充分展现了中国负责任大国的（），极大增强了全党全国各族人民的自信心和自豪感、凝聚力和向心力，必将激励我们在新时代新征程上披荆斩棘、奋勇前进。</t>
+  </si>
+  <si>
+    <t>显著优势#自觉担当</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业农村农民问题是关系国计民生的革命性问题。</t>
+  </si>
+  <si>
+    <t>巩固脱贫成果防止返贫，强化（  ）、（  ），深入开展（  ），加大易地扶贫搬迁后续扶持力度。</t>
+  </si>
+  <si>
+    <t>产业扶贫；#就业扶贫；#消费扶贫；</t>
+  </si>
+  <si>
+    <t>全面从严治党是我党立下的军令状，“打铁必须自身硬”是我党的庄严承诺。</t>
+  </si>
+  <si>
+    <t>根据广东省人民政府请示并应香港特别行政区政府要求，深圳湾口岸港方查验区总用地面积为（）公顷（具体以界址点坐标控制，详见附件1）。</t>
+  </si>
+  <si>
+    <t>制度是关系党和国家事业发展的（  ）、（  ）、（  ）、（  ）问题。</t>
+  </si>
+  <si>
+    <t>根本性#全局性#稳定性#长期性</t>
   </si>
 </sst>
 </file>
@@ -2816,7 +3248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2842,6 +3274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3123,16 +3558,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C480"/>
+  <dimension ref="A1:C563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:C480"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="A527" sqref="A527:C563"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="71.58203125" customWidth="1"/>
-    <col min="3" max="3" width="107.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5546875" customWidth="1"/>
+    <col min="3" max="3" width="107.109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3256,7 +3691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="42">
+    <row r="12" spans="1:3" ht="41.4">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3863,7 +4298,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -4081,7 +4516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="28">
+    <row r="87" spans="1:3" ht="41.4">
       <c r="A87" s="2" t="s">
         <v>157</v>
       </c>
@@ -4921,112 +5356,112 @@
     </row>
     <row r="164" spans="1:3" s="1" customFormat="1">
       <c r="A164" s="1" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="165" spans="1:3" s="1" customFormat="1">
       <c r="A165" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:3" s="1" customFormat="1">
       <c r="A166" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="167" spans="1:3" s="1" customFormat="1">
       <c r="A167" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="168" spans="1:3" s="1" customFormat="1">
       <c r="A168" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="169" spans="1:3" s="1" customFormat="1">
       <c r="A169" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="1" customFormat="1">
       <c r="A170" s="1" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>301</v>
+      <c r="C170" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="171" spans="1:3" s="1" customFormat="1">
       <c r="A171" s="1" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C171" s="6">
-        <v>70</v>
+      <c r="C171" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:3" s="1" customFormat="1">
       <c r="A172" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="1" customFormat="1">
       <c r="A173" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>305</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="1" customFormat="1">
@@ -5037,161 +5472,161 @@
         <v>1</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="1" customFormat="1">
       <c r="A175" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176" spans="1:3" s="1" customFormat="1">
       <c r="A176" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="1" customFormat="1">
       <c r="A177" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:3" s="1" customFormat="1">
       <c r="A178" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="179" spans="1:3" s="1" customFormat="1">
       <c r="A179" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:3" s="1" customFormat="1">
       <c r="A180" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="181" spans="1:3" s="1" customFormat="1">
       <c r="A181" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" s="1" customFormat="1">
-      <c r="A182" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="1" customFormat="1" ht="41.4">
+      <c r="A182" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" s="6" t="s">
+    </row>
+    <row r="183" spans="1:3" s="1" customFormat="1">
+      <c r="A183" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="1" customFormat="1" ht="55.2">
+      <c r="A184" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="1" customFormat="1" ht="42">
-      <c r="A183" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" s="1" customFormat="1">
-      <c r="A184" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" s="1" customFormat="1" ht="42">
-      <c r="A185" s="2" t="s">
+    <row r="185" spans="1:3" s="1" customFormat="1">
+      <c r="A185" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>8</v>
+        <v>326</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="1" customFormat="1">
       <c r="A186" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="1" customFormat="1">
       <c r="A187" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="1" customFormat="1">
       <c r="A188" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="1" customFormat="1">
@@ -5202,106 +5637,106 @@
         <v>1</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="1" customFormat="1">
       <c r="A190" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>334</v>
+      <c r="C190" s="7" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="1" customFormat="1">
       <c r="A191" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C191" s="7" t="s">
-        <v>336</v>
+      <c r="C191" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="1" customFormat="1">
       <c r="A192" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="1" customFormat="1">
       <c r="A193" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="1" customFormat="1">
       <c r="A194" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="1" customFormat="1">
       <c r="A195" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="1" customFormat="1">
       <c r="A196" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="197" spans="1:3" s="1" customFormat="1">
       <c r="A197" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="198" spans="1:3" s="1" customFormat="1">
       <c r="A198" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>350</v>
+      <c r="C198" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="199" spans="1:3" s="1" customFormat="1">
@@ -5311,63 +5746,63 @@
       <c r="B199" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C199" s="6">
-        <v>70</v>
+      <c r="C199" s="6" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="1" customFormat="1">
       <c r="A200" s="1" t="s">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>353</v>
+        <v>107</v>
       </c>
     </row>
     <row r="201" spans="1:3" s="1" customFormat="1">
       <c r="A201" s="1" t="s">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>107</v>
+        <v>354</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="1" customFormat="1">
       <c r="A202" s="1" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>355</v>
+        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="1" customFormat="1">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>355</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="1" customFormat="1">
       <c r="A204" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>357</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:3" s="1" customFormat="1">
@@ -5378,139 +5813,139 @@
         <v>1</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>8</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="1" customFormat="1">
       <c r="A206" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="207" spans="1:3" s="1" customFormat="1">
       <c r="A207" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="1:3" s="1" customFormat="1">
       <c r="A208" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="209" spans="1:3" s="1" customFormat="1">
       <c r="A209" s="1" t="s">
-        <v>365</v>
+        <v>240</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>366</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="1" customFormat="1">
       <c r="A210" s="1" t="s">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>241</v>
+        <v>367</v>
       </c>
     </row>
     <row r="211" spans="1:3" s="1" customFormat="1">
       <c r="A211" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="212" spans="1:3" s="1" customFormat="1">
       <c r="A212" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" s="1" customFormat="1" ht="41.4">
+      <c r="A213" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" s="1" customFormat="1">
-      <c r="A213" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="B213" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" s="1" customFormat="1" ht="42">
-      <c r="A214" s="2" t="s">
         <v>370</v>
       </c>
+    </row>
+    <row r="214" spans="1:3" s="1" customFormat="1">
+      <c r="A214" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="B214" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="215" spans="1:3" s="1" customFormat="1">
       <c r="A215" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C215" s="6" t="s">
-        <v>373</v>
+      <c r="C215" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="1" customFormat="1">
       <c r="A216" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C216" s="8" t="s">
-        <v>375</v>
+      <c r="C216" s="6" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="217" spans="1:3" s="1" customFormat="1">
       <c r="A217" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>377</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="1" customFormat="1">
@@ -5521,29 +5956,29 @@
         <v>1</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>22</v>
+        <v>379</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="1" customFormat="1">
       <c r="A219" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="1" customFormat="1">
       <c r="A220" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>382</v>
+      <c r="C220" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:3" s="1" customFormat="1">
@@ -5554,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="6">
-        <v>5</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="1" customFormat="1">
@@ -5564,63 +5999,63 @@
       <c r="B222" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C222" s="6">
-        <v>2035</v>
+      <c r="C222" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="1" customFormat="1">
       <c r="A223" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="1:3" s="1" customFormat="1">
       <c r="A224" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="225" spans="1:3" s="1" customFormat="1">
       <c r="A225" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="226" spans="1:3" s="1" customFormat="1">
       <c r="A226" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:3" s="1" customFormat="1">
       <c r="A227" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C227" s="6" t="s">
-        <v>394</v>
+      <c r="C227" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="1" customFormat="1">
@@ -5630,8 +6065,8 @@
       <c r="B228" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C228" s="6">
-        <v>10</v>
+      <c r="C228" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:3" s="1" customFormat="1">
@@ -5642,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230" spans="1:3" s="1" customFormat="1">
@@ -5653,18 +6088,18 @@
         <v>1</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
     </row>
     <row r="231" spans="1:3" s="1" customFormat="1">
       <c r="A231" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>399</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:3" s="1" customFormat="1">
@@ -5675,315 +6110,315 @@
         <v>1</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>8</v>
+        <v>401</v>
       </c>
     </row>
     <row r="233" spans="1:3" s="1" customFormat="1">
       <c r="A233" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="1" customFormat="1">
       <c r="A234" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>404</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:3" s="1" customFormat="1">
       <c r="A235" s="1" t="s">
-        <v>42</v>
+        <v>405</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>43</v>
+        <v>406</v>
       </c>
     </row>
     <row r="236" spans="1:3" s="1" customFormat="1">
       <c r="A236" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" s="1" customFormat="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" s="1" customFormat="1">
+      <c r="C237" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C239" s="8" t="s">
-        <v>411</v>
+      <c r="C239" s="6" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>412</v>
+        <v>254</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>413</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>254</v>
+        <v>417</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>255</v>
+        <v>418</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C244" s="6" t="s">
-        <v>419</v>
+      <c r="C244" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C246" s="6">
-        <v>0.5</v>
+      <c r="C246" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>423</v>
+        <v>106</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>424</v>
+        <v>107</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>426</v>
+        <v>22</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>106</v>
+        <v>426</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>22</v>
+      <c r="C250" s="7" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>8</v>
+        <v>430</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C252" s="7" t="s">
-        <v>429</v>
+      <c r="C252" s="6" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>436</v>
+        <v>265</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>437</v>
+        <v>257</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>265</v>
+        <v>441</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>257</v>
+        <v>442</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>441</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>442</v>
+        <v>233</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>443</v>
+        <v>234</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5994,51 +6429,51 @@
         <v>1</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>8</v>
+        <v>445</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>233</v>
+        <v>446</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>234</v>
+        <v>447</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>445</v>
+        <v>245</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C263" s="6" t="s">
-        <v>446</v>
+      <c r="C263" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C264" s="6" t="s">
-        <v>448</v>
+      <c r="C264" s="6">
+        <v>2.5</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>245</v>
+        <v>404</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C265" s="6">
-        <v>70</v>
+      <c r="C265" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -6048,74 +6483,74 @@
       <c r="B266" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C266" s="6">
-        <v>2.5</v>
+      <c r="C266" s="6" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>8</v>
+        <v>452</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C269" s="6" t="s">
-        <v>453</v>
+      <c r="C269" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C271" s="6">
-        <v>70</v>
+      <c r="C271" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>457</v>
+        <v>384</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>458</v>
+        <v>385</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -6126,2282 +6561,3195 @@
         <v>1</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>8</v>
+        <v>460</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>385</v>
+        <v>461</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>386</v>
+        <v>462</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>461</v>
+      <c r="C275" s="8" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C277" s="8" t="s">
-        <v>465</v>
+      <c r="C277" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>467</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C279" s="6" t="s">
-        <v>469</v>
+      <c r="C279" s="8" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>470</v>
+        <v>195</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C281" s="8" t="s">
-        <v>472</v>
+      <c r="C281" s="6">
+        <v>7.29</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>195</v>
+        <v>473</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C283" s="6">
-        <v>7.29</v>
+      <c r="C283" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>8</v>
+        <v>479</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C287" s="6" t="s">
-        <v>480</v>
+      <c r="C287" s="8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>483</v>
+        <v>166</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="8" t="s">
-        <v>484</v>
+      <c r="C289" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>486</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>166</v>
+        <v>487</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>167</v>
+        <v>488</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>22</v>
+        <v>490</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>489</v>
+        <v>22</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>22</v>
+        <v>495</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C299" s="6" t="s">
-        <v>500</v>
+      <c r="C299" s="8" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>504</v>
+        <v>75</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>505</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C303" s="8" t="s">
-        <v>507</v>
+      <c r="C303" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>219</v>
+        <v>508</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>220</v>
+        <v>509</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>75</v>
+        <v>510</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>76</v>
+        <v>511</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C306" s="6">
-        <v>0.5</v>
+      <c r="C306" s="8" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C307" s="6" t="s">
-        <v>510</v>
+      <c r="C307" s="7" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>512</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C309" s="8" t="s">
-        <v>514</v>
+      <c r="C309" s="6" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C310" s="7" t="s">
-        <v>516</v>
+      <c r="C310" s="6" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>8</v>
+        <v>523</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>525</v>
+        <v>413</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>526</v>
+        <v>414</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C316" s="6" t="s">
-        <v>528</v>
+      <c r="C316" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>529</v>
+        <v>444</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>530</v>
+        <v>445</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>414</v>
+        <v>531</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>415</v>
+        <v>532</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C319" s="6">
-        <v>3</v>
+      <c r="C319" s="6" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>534</v>
+        <v>405</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>535</v>
+        <v>406</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>536</v>
+        <v>252</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>537</v>
+        <v>253</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>406</v>
+        <v>539</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>407</v>
+        <v>540</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>252</v>
+        <v>543</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>253</v>
+        <v>544</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>547</v>
+        <v>38</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>548</v>
+        <v>728</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>38</v>
+        <v>556</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>729</v>
+        <v>557</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="69">
       <c r="A336" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C336" s="6" t="s">
-        <v>555</v>
+      <c r="C336" s="9" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="70">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C339" s="9" t="s">
-        <v>561</v>
+      <c r="C339" s="6" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>726</v>
+        <v>569</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>566</v>
+        <v>172</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>172</v>
+        <v>576</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>573</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>8</v>
+        <v>583</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>594</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>8</v>
+        <v>604</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>607</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="55.2">
+      <c r="A366" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>611</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>22</v>
+        <v>615</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="42">
-      <c r="A369" s="2" t="s">
-        <v>325</v>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>22</v>
+        <v>624</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>623</v>
+        <v>725</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>625</v>
+        <v>729</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C376" s="6" t="s">
-        <v>627</v>
+      <c r="C376" s="6">
+        <v>2018</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>726</v>
+        <v>631</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>730</v>
+        <v>477</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C379" s="6">
-        <v>2018</v>
+      <c r="C379" s="6" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>478</v>
+        <v>638</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="55.2">
+      <c r="A384" s="2" t="s">
+        <v>643</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="42">
-      <c r="A387" s="2" t="s">
-        <v>644</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C389" s="6" t="s">
-        <v>730</v>
+      <c r="C389" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C392" s="6">
-        <v>20</v>
+      <c r="C392" s="6" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>661</v>
+        <v>725</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>726</v>
+        <v>671</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>670</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>672</v>
+        <v>725</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>674</v>
+        <v>725</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>8</v>
+        <v>678</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>726</v>
+        <v>680</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C406" s="6" t="s">
-        <v>726</v>
+      <c r="C406" s="6">
+        <v>75</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>679</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C409" s="6">
-        <v>75</v>
+      <c r="C409" s="6" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>580</v>
+        <v>688</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>732</v>
+        <v>518</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>519</v>
+        <v>741</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>739</v>
+        <v>390</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>740</v>
+        <v>391</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>391</v>
+        <v>748</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>392</v>
+        <v>749</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>758</v>
+        <v>22</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>22</v>
+        <v>768</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>771</v>
+        <v>328</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>433</v>
+        <v>786</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C463" s="6" t="s">
-        <v>785</v>
+      <c r="C463" s="6">
+        <v>40</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C465" s="6" t="s">
-        <v>789</v>
+      <c r="C465" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C466" s="6">
-        <v>40</v>
+      <c r="C466" s="6" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>792</v>
+        <v>725</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C468" s="6">
-        <v>2</v>
+      <c r="C468" s="6" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="B470" s="1"/>
       <c r="C470" s="6" t="s">
-        <v>726</v>
+        <v>8</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B473" s="1"/>
+        <v>805</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C473" s="6" t="s">
-        <v>8</v>
+        <v>806</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>805</v>
+        <v>725</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>726</v>
+        <v>815</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
-        <v>811</v>
+        <v>383</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C479" s="6" t="s">
-        <v>812</v>
+      <c r="C479" s="6">
+        <v>2035</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>814</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C481" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C482" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C483" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C484" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C485" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C486" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C487" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C488" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C489" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C490" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C491" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C492" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C493" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C494" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C495" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C496" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C497" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C498" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C499" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C500" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C501" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C502" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C503" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C504" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C505" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C506" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C507" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C508" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C509" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C510" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C511" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C512" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C513" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C514" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C515" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C516" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C517" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C518" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C519" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C520" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C521" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C522" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C523" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C524" s="6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C525" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C526" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C527" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C528" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C529" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C530" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C531" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C532" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C533" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C534" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C535" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C536" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C537" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C538" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C539" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C540" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C541" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C542" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C543" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C544" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C545" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C546" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C547" s="6" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C548" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C549" s="10">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C550" s="6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C551" s="6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C552" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C553" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C554" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C555" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C556" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C557" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C558" s="6" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C559" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C560" s="6" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C561" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C562" s="6">
+        <v>41.564999999999998</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C563" s="6" t="s">
+        <v>955</v>
       </c>
     </row>
   </sheetData>

--- a/查询本地题库/副本12.16更新形势与政策必答题库(不完整).xlsx
+++ b/查询本地题库/副本12.16更新形势与政策必答题库(不完整).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上的文件\形势与政策\mon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED568AFC-CE17-4D2A-BE3D-4D2A0B8E0EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1BD219-B11A-481B-A850-4155E69631AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="2244" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12330" yWindow="2400" windowWidth="11610" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="1851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="1877">
   <si>
     <t>,</t>
   </si>
@@ -5850,9 +5850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>党的()是党的根本性建设，决定党的建设方向和效果。</t>
-  </si>
-  <si>
     <t>港澳台居民前往内地(大陆)居住()以上，符合相关规定的，根据本人意愿，可以依照相关规定申请领取内地(大陆)居住证。</t>
   </si>
   <si>
@@ -6073,6 +6070,102 @@
   <si>
     <t>坚决打赢脱贫攻坚战;#对标全面建成小康社会加快补上农村基础设施和公共服务短板;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党的()提出全面建成小康社会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国总理默克尔2020年8月28日在柏林表示，未来欧盟期待与中国在()、()等方面加强合作。</t>
+  </si>
+  <si>
+    <t>应对气候变化#第三方市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照党的十九大提出的决胜全面建成小康社会、分两个阶段实现第二个百年奋斗目标的战略安排，实施乡村振兴战略的目标任务是到2020年，乡村振兴()、()和()。</t>
+  </si>
+  <si>
+    <t>取得重要进展#制度框架基本形成#政策体系基本形成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年10月3日，中国国家主席习近平致电美国总统特朗普，就特朗普总统夫妇感染()病毒致以慰问</t>
+  </si>
+  <si>
+    <t>新冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平2020年6月16日同塔吉克斯坦总统拉赫蒙通电话时的讲话指出：中塔关系已经站在新的历史起点上。双方应该统筹好疫情防控和贸易往来，开拓思路，确保共建“一带一路”重点项目得到落实。要着眼后疫情时代，尽早谋划()、()、()、()、农业等重点领域合作，推动两国关系得到新发展。</t>
+  </si>
+  <si>
+    <t>经贸#投资#能源#互联互通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十九大报告指出，党的()是党的根本性建设，决定党的建设方向和效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以习近平同志为核心的党中央从坚持和发展中国特色社会主义全局出发，提出并协调推进全面建成小康社会、全面深化改革、全面依法治国、全面从严治党。在“四个全面”战略布局中，()是居于引领地位的战略目标。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全面建成小康社会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党的()是党的根本性建设，决定党的建设方向和效果。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年是纪念台湾光复()周年。</t>
+  </si>
+  <si>
+    <t>2020年4月28日，外交部副部长乐玉成接受美国全国广播公司(NBC)电视专访，强调中美关系发展要做到“三要”，即()、()、()。</t>
+  </si>
+  <si>
+    <t>要保持两国领导人经常沟通和两国有关部门的对话和协调#要深化双方各领域务实合作#要加强两国在多边领域的国际抗疫合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年10月15日，中华日本学会、中国社会科学院日本研究所与社会科学文献出版社在京共同发布了《日本蓝皮书：日本研究报告(2020)》。蓝皮书由总报告、()、对外关系篇、()、()和附录构成，对2019年度各领域的发展情况进行了回顾，特别是围绕日本“令和”开局与新时代中日关系等进行了深入研讨和分析，并收录了该年度日本大事记。</t>
+  </si>
+  <si>
+    <t>政治经济篇#社会文化篇#中日关系篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小康社会的基本特征包括()、()、()和()。</t>
+  </si>
+  <si>
+    <t>经济标志性#全面进步性#共建共享性#历史过渡性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年9月22日，外交部副部长秦刚应邀出席德国驻华使馆庆祝德国统一()周年招待会。</t>
+  </si>
+  <si>
+    <t>习近平2020年10月14日在深圳经济特区建立40周年庆祝大会上的讲话中指出：要在()、()、()、()、()等方面，探索更加灵活的政策体系、更加科学的管理体制，加强同“一带一路”沿线国家和地区开展多层次、多领域的务实合作。</t>
+  </si>
+  <si>
+    <t>内外贸#投融资#财政税务#金融创新#出入境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当地时间2020年8月30日，国务委员兼外长王毅在法国国际关系研究院指出，中欧应从四个方面建设伙伴关系，即()、()、()、()。</t>
+  </si>
+  <si>
+    <t>构建抗疫伙伴关系#强化投资伙伴关系#打造绿色和数字伙伴关系#深化多边合作伙伴关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年10月10日，上海、浙江、江苏共同发布《长三角生态绿色一体化发展示范区政府核准的投资项目目录(2020年本)》，这是我国()个跨省域的政府核准的投资项目目录。</t>
   </si>
 </sst>
 </file>
@@ -6471,16 +6564,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1031"/>
+  <dimension ref="A1:C1048"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1017" workbookViewId="0">
-      <selection activeCell="C1027" sqref="C1027"/>
+    <sheetView tabSelected="1" topLeftCell="A1026" workbookViewId="0">
+      <selection activeCell="C1042" sqref="C1042"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="71.5546875" customWidth="1"/>
-    <col min="3" max="3" width="107.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.58203125" customWidth="1"/>
+    <col min="3" max="3" width="107.08203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6604,9 +6697,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.6">
+    <row r="12" spans="1:3" ht="28">
       <c r="A12" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
@@ -7429,9 +7522,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="27.6">
+    <row r="87" spans="1:3" ht="28">
       <c r="A87" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
@@ -8157,7 +8250,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>0</v>
@@ -8199,9 +8292,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="82.8">
+    <row r="157" spans="1:3" ht="70">
       <c r="A157" s="12" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>851</v>
@@ -8397,9 +8490,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="1" customFormat="1" ht="27.6">
+    <row r="175" spans="1:3" s="1" customFormat="1" ht="28">
       <c r="A175" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>0</v>
@@ -8419,9 +8512,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:3" s="1" customFormat="1" ht="41.4">
+    <row r="177" spans="1:3" s="1" customFormat="1" ht="28">
       <c r="A177" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>0</v>
@@ -8694,9 +8787,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="1" customFormat="1" ht="27.6">
+    <row r="202" spans="1:3" s="1" customFormat="1" ht="28">
       <c r="A202" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>0</v>
@@ -9532,7 +9625,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>1787</v>
+        <v>1863</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>0</v>
@@ -9871,7 +9964,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="27.6">
+    <row r="309" spans="1:3" ht="28">
       <c r="A309" s="1" t="s">
         <v>1448</v>
       </c>
@@ -9879,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -10377,9 +10470,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="27.6">
+    <row r="355" spans="1:3" ht="28">
       <c r="A355" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>0</v>
@@ -12542,7 +12635,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="69">
+    <row r="552" spans="1:3" ht="70">
       <c r="A552" s="2" t="s">
         <v>1399</v>
       </c>
@@ -12740,9 +12833,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="41.4">
+    <row r="570" spans="1:3" ht="28">
       <c r="A570" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>0</v>
@@ -13059,9 +13152,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="27.6">
+    <row r="599" spans="1:3" ht="28">
       <c r="A599" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>0</v>
@@ -14324,9 +14417,9 @@
         <v>664</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="27.6">
+    <row r="714" spans="1:3" ht="28">
       <c r="A714" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>0</v>
@@ -14656,7 +14749,7 @@
     </row>
     <row r="744" spans="1:3">
       <c r="A744" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>0</v>
@@ -14698,9 +14791,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="27.6">
+    <row r="748" spans="1:3" ht="28">
       <c r="A748" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>0</v>
@@ -14808,9 +14901,9 @@
         <v>701</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="27.6">
+    <row r="758" spans="1:3" ht="28">
       <c r="A758" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>0</v>
@@ -15642,9 +15735,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="834" spans="1:3" ht="27.6">
+    <row r="834" spans="1:3" ht="28">
       <c r="A834" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>0</v>
@@ -15785,9 +15878,9 @@
         <v>785</v>
       </c>
     </row>
-    <row r="847" spans="1:3" ht="27.6">
+    <row r="847" spans="1:3" ht="28">
       <c r="A847" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>0</v>
@@ -16117,7 +16210,7 @@
     </row>
     <row r="877" spans="1:3">
       <c r="A877" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>0</v>
@@ -17493,7 +17586,7 @@
     </row>
     <row r="1002" spans="1:3">
       <c r="A1002" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1002" s="1" t="s">
         <v>851</v>
@@ -17504,7 +17597,7 @@
     </row>
     <row r="1003" spans="1:3">
       <c r="A1003" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1003" s="1" t="s">
         <v>851</v>
@@ -17515,7 +17608,7 @@
     </row>
     <row r="1004" spans="1:3">
       <c r="A1004" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>851</v>
@@ -17526,18 +17619,18 @@
     </row>
     <row r="1005" spans="1:3">
       <c r="A1005" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1005" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1005" s="7" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
       <c r="A1006" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B1006" s="1" t="s">
         <v>851</v>
@@ -17548,7 +17641,7 @@
     </row>
     <row r="1007" spans="1:3">
       <c r="A1007" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B1007" s="1" t="s">
         <v>851</v>
@@ -17559,29 +17652,29 @@
     </row>
     <row r="1008" spans="1:3">
       <c r="A1008" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1008" s="7" t="s">
         <v>1807</v>
-      </c>
-      <c r="B1008" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1008" s="7" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
       <c r="A1009" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B1009" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1009" s="7" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
       <c r="A1010" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B1010" s="1" t="s">
         <v>851</v>
@@ -17592,18 +17685,18 @@
     </row>
     <row r="1011" spans="1:3">
       <c r="A1011" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B1011" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1011" s="7" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
       <c r="A1012" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B1012" s="1" t="s">
         <v>851</v>
@@ -17614,186 +17707,361 @@
     </row>
     <row r="1013" spans="1:3">
       <c r="A1013" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1013" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1013" s="7" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
       <c r="A1014" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1014" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1014" s="7" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
       <c r="A1015" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B1015" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1015" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
       <c r="A1016" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B1016" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1016" s="7" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
       <c r="A1017" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B1017" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1017" s="7" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
       <c r="A1018" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B1018" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1018" s="7" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
       <c r="A1019" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B1019" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1019" s="7" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
       <c r="A1020" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B1020" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1020" s="7" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
       <c r="A1021" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B1021" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1021" s="7" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
       <c r="A1022" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B1022" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1022" s="7" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
       <c r="A1023" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B1023" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1023" s="7" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
       <c r="A1024" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B1024" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1024" s="7" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
       <c r="A1025" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B1025" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1025" s="7" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
       <c r="A1026" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B1026" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1026" s="7" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
       <c r="A1027" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B1027" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1027" s="7" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3">
+      <c r="A1028" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="1028" spans="1:3">
       <c r="B1028" s="1" t="s">
         <v>851</v>
       </c>
+      <c r="C1028" s="7" t="s">
+        <v>1851</v>
+      </c>
     </row>
     <row r="1029" spans="1:3">
+      <c r="A1029" t="s">
+        <v>1852</v>
+      </c>
       <c r="B1029" s="1" t="s">
         <v>851</v>
       </c>
+      <c r="C1029" s="7" t="s">
+        <v>1853</v>
+      </c>
     </row>
     <row r="1030" spans="1:3">
+      <c r="A1030" t="s">
+        <v>1854</v>
+      </c>
       <c r="B1030" s="1" t="s">
         <v>851</v>
       </c>
+      <c r="C1030" s="7" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="1031" spans="1:3">
+      <c r="A1031" s="1" t="s">
+        <v>1856</v>
+      </c>
       <c r="B1031" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1031" s="7" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3">
+      <c r="A1032" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1032" s="7" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3">
+      <c r="A1033" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1033" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3">
+      <c r="A1034" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1034" s="7" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3">
+      <c r="A1035" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1035" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3">
+      <c r="A1036" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1036" s="7" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3">
+      <c r="A1037" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1037" s="7" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3">
+      <c r="A1038" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1038" s="7" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3">
+      <c r="A1039" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1039" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3">
+      <c r="A1040" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1040" s="7" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3">
+      <c r="A1041" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1041" s="7" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3">
+      <c r="A1042" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1042" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3">
+      <c r="B1043" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3">
+      <c r="B1044" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3">
+      <c r="B1045" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3">
+      <c r="B1046" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3">
+      <c r="B1047" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3">
+      <c r="B1048" s="1" t="s">
         <v>851</v>
       </c>
     </row>
